--- a/Beginner/Slides/Lec_5_6.xlsx
+++ b/Beginner/Slides/Lec_5_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D425593-24F3-8843-BEBC-1AB038C2DC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C72ED-3122-C543-B024-3CC56D0F760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="5" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -2391,81 +2391,51 @@
     <t>返回当前日期 + 时间</t>
   </si>
   <si>
-    <t>提取年份</t>
-  </si>
-  <si>
     <t>STRFTIME('%Y', 'now')</t>
   </si>
   <si>
     <t>返回4位年份</t>
   </si>
   <si>
-    <t>提取月份</t>
-  </si>
-  <si>
     <t>STRFTIME('%m', 'now')</t>
   </si>
   <si>
     <t>返回2位月份</t>
   </si>
   <si>
-    <t>提取日</t>
-  </si>
-  <si>
     <t>STRFTIME('%d', 'now')</t>
   </si>
   <si>
     <t>返回2位日期</t>
   </si>
   <si>
-    <t>提取小时</t>
-  </si>
-  <si>
     <t>STRFTIME('%H', 'now')</t>
   </si>
   <si>
     <t>24小时制</t>
   </si>
   <si>
-    <t>提取分钟</t>
-  </si>
-  <si>
     <t>STRFTIME('%M', 'now')</t>
   </si>
   <si>
     <t>分钟数</t>
   </si>
   <si>
-    <t>提取秒数</t>
-  </si>
-  <si>
     <t>STRFTIME('%S', 'now')</t>
   </si>
   <si>
     <t>秒数</t>
   </si>
   <si>
-    <t>提取星期几（0=周日）</t>
-  </si>
-  <si>
     <t>STRFTIME('%w', 'now')</t>
   </si>
   <si>
-    <t>0=Sunday</t>
-  </si>
-  <si>
-    <t>一年中的第几天</t>
-  </si>
-  <si>
     <t>STRFTIME('%j', 'now')</t>
   </si>
   <si>
     <t>返回001–366</t>
   </si>
   <si>
-    <t>一年中的第几周</t>
-  </si>
-  <si>
     <t>STRFTIME('%W', 'now')</t>
   </si>
   <si>
@@ -2481,27 +2451,15 @@
     <t>明天</t>
   </si>
   <si>
-    <t>DATE('now', '-7 day')</t>
-  </si>
-  <si>
-    <t>7天前</t>
-  </si>
-  <si>
     <t>DATETIME('now', '+3 hours', '-15 minutes')</t>
   </si>
   <si>
     <t>当前时间 +3小时 -15分钟</t>
   </si>
   <si>
-    <t>DATE('2025-01-01', '+1 month')</t>
-  </si>
-  <si>
     <t>加一个月</t>
   </si>
   <si>
-    <t>DATE('2025-01-01', '+1 year', '-1 day')</t>
-  </si>
-  <si>
     <t>明年减一天</t>
   </si>
   <si>
@@ -2533,13 +2491,55 @@
   </si>
   <si>
     <t>📘 SQL 简介与语法规则</t>
+  </si>
+  <si>
+    <t>提取月份 (month)</t>
+  </si>
+  <si>
+    <t>提取分钟 (Minute)</t>
+  </si>
+  <si>
+    <t>提取年份(Year)</t>
+  </si>
+  <si>
+    <t>提取日(day)</t>
+  </si>
+  <si>
+    <t>提取小时 (Hour)</t>
+  </si>
+  <si>
+    <t>提取秒数 (Second)</t>
+  </si>
+  <si>
+    <t>提取星期几（0=周日）(the day in a week)</t>
+  </si>
+  <si>
+    <t>0=Sunday 1=Monday</t>
+  </si>
+  <si>
+    <t>一年中的第几天 (The day in the year)</t>
+  </si>
+  <si>
+    <t>一年中的第几周 (Week)</t>
+  </si>
+  <si>
+    <t>DATE('now', '-3 day')</t>
+  </si>
+  <si>
+    <t>3天前</t>
+  </si>
+  <si>
+    <t>DATE('2025-01-01', '-1 month')</t>
+  </si>
+  <si>
+    <t>DATE('2025-01-01', '+1 year', '-1 month')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2783,8 +2783,20 @@
       <color rgb="FFFF0000"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="6"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2806,12 +2818,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2895,7 +2901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2965,9 +2971,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3018,6 +3021,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3392,7 +3405,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>查询今年出生的学生</a:t>
+            <a:t>查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2020</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>出生的学生</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
@@ -3427,7 +3464,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> -- age = 0</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3487,7 +3524,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- age = STRFTIME('%Y', 'now');</a:t>
+            <a:t>- age = '2020'</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3692,6 +3729,69 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 取余数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 7 % 4 =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4050,8 +4150,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4257,7 +4357,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4271,7 +4371,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -4283,7 +4383,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -4295,7 +4395,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="59"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -4307,7 +4407,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="62"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -4319,7 +4419,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="62"/>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -4331,7 +4431,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -4343,7 +4443,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="62"/>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -4355,7 +4455,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="62"/>
+      <c r="D36" s="59"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -4367,7 +4467,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="62"/>
+      <c r="D37" s="59"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -4379,7 +4479,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="62"/>
+      <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -4391,7 +4491,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="62"/>
+      <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -4403,7 +4503,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="62"/>
+      <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -4415,7 +4515,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="62"/>
+      <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -4427,7 +4527,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="62"/>
+      <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -4439,7 +4539,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="62"/>
+      <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -4451,11 +4551,11 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="62"/>
+      <c r="D44" s="59"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>91</v>
@@ -4479,7 +4579,7 @@
     <row r="57" spans="1:5" ht="25">
       <c r="A57" s="14"/>
       <c r="C57" s="39" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25">
@@ -4488,12 +4588,12 @@
       </c>
       <c r="B58" s="42"/>
       <c r="E58" s="34" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25">
       <c r="A59" s="14" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="B59" s="42"/>
       <c r="E59" s="33" t="s">
@@ -4502,7 +4602,7 @@
     </row>
     <row r="60" spans="1:5" ht="25">
       <c r="A60" s="14" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="B60" s="42"/>
       <c r="E60" s="33" t="s">
@@ -4510,8 +4610,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="25">
-      <c r="A61" s="61" t="s">
-        <v>750</v>
+      <c r="A61" s="58" t="s">
+        <v>736</v>
       </c>
       <c r="B61" s="42"/>
       <c r="E61" s="33" t="s">
@@ -4519,16 +4619,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="61" t="s">
-        <v>749</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>747</v>
+      <c r="A62" s="58" t="s">
+        <v>735</v>
+      </c>
+      <c r="B62" s="58" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="61" t="s">
-        <v>748</v>
+      <c r="A63" s="58" t="s">
+        <v>734</v>
       </c>
       <c r="B63" s="42"/>
     </row>
@@ -4561,7 +4661,9 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="94" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -4814,10 +4916,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -4900,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:E52"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5034,10 +5136,10 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="67" t="s">
         <v>201</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -5048,8 +5150,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="68"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="68" t="s">
         <v>485</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -5060,10 +5162,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="67" t="s">
         <v>206</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -5074,8 +5176,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="68"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="67" t="s">
         <v>209</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -5086,10 +5188,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="67" t="s">
         <v>213</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -5100,8 +5202,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="68"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="67" t="s">
         <v>216</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -5115,7 +5217,7 @@
       <c r="B22" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="68" t="s">
         <v>220</v>
       </c>
       <c r="D22" s="26" t="s">
@@ -5140,7 +5242,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="64" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5154,7 +5256,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="69"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5166,7 +5268,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="68"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -5206,10 +5308,10 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="67" t="s">
         <v>608</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -5220,8 +5322,8 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="65"/>
-      <c r="C36" s="48" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="67" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -5232,8 +5334,8 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="65"/>
-      <c r="C37" s="48" t="s">
+      <c r="B37" s="62"/>
+      <c r="C37" s="67" t="s">
         <v>604</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -5244,8 +5346,8 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="65"/>
-      <c r="C38" s="48" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="67" t="s">
         <v>248</v>
       </c>
       <c r="D38" s="26" t="s">
@@ -5256,8 +5358,8 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="65"/>
-      <c r="C39" s="48" t="s">
+      <c r="B39" s="62"/>
+      <c r="C39" s="67" t="s">
         <v>250</v>
       </c>
       <c r="D39" s="26" t="s">
@@ -5268,8 +5370,8 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="66"/>
-      <c r="C40" s="48" t="s">
+      <c r="B40" s="63"/>
+      <c r="C40" s="67" t="s">
         <v>252</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -5280,10 +5382,10 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="67" t="s">
         <v>256</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -5294,8 +5396,8 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="65"/>
-      <c r="C42" s="48" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="67" t="s">
         <v>259</v>
       </c>
       <c r="D42" s="26" t="s">
@@ -5306,8 +5408,8 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="65"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="62"/>
+      <c r="C43" s="69" t="s">
         <v>606</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -5321,8 +5423,8 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="65"/>
-      <c r="C44" s="48" t="s">
+      <c r="B44" s="62"/>
+      <c r="C44" s="67" t="s">
         <v>605</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -5333,8 +5435,8 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="65"/>
-      <c r="C45" s="48" t="s">
+      <c r="B45" s="62"/>
+      <c r="C45" s="67" t="s">
         <v>264</v>
       </c>
       <c r="D45" s="26" t="s">
@@ -5348,8 +5450,8 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="66"/>
-      <c r="C46" s="48" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="67" t="s">
         <v>266</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -5361,10 +5463,10 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="48" t="s">
         <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -5378,8 +5480,8 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="65"/>
-      <c r="C48" s="51" t="s">
+      <c r="B48" s="62"/>
+      <c r="C48" s="48" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -5391,8 +5493,8 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="65"/>
-      <c r="C49" s="51" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="48" t="s">
         <v>275</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -5406,8 +5508,8 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="65"/>
-      <c r="C50" s="51" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="48" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -5419,8 +5521,8 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="65"/>
-      <c r="C51" s="51" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="48" t="s">
         <v>281</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -5434,8 +5536,8 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="66"/>
-      <c r="C52" s="51" t="s">
+      <c r="B52" s="63"/>
+      <c r="C52" s="48" t="s">
         <v>284</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -5446,7 +5548,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="61" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -5460,7 +5562,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="65"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="26" t="s">
         <v>291</v>
       </c>
@@ -5472,7 +5574,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="65"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="26" t="s">
         <v>294</v>
       </c>
@@ -5484,7 +5586,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="65"/>
+      <c r="B56" s="62"/>
       <c r="C56" s="26" t="s">
         <v>297</v>
       </c>
@@ -5496,7 +5598,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="66"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="26" t="s">
         <v>300</v>
       </c>
@@ -5508,7 +5610,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="61" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -5522,7 +5624,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="65"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -5534,7 +5636,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="65"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -5546,7 +5648,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="66"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -6280,9 +6382,7 @@
   </sheetPr>
   <dimension ref="A1:AH176"/>
   <sheetViews>
-    <sheetView topLeftCell="Z35" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH142"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -7935,24 +8035,26 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
     <col min="6" max="6" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
-      <c r="A2" s="60"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="48" t="s">
         <v>269</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -7963,7 +8065,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -7974,7 +8076,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="70" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -7985,7 +8087,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="70" t="s">
         <v>278</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -7996,7 +8098,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="70" t="s">
         <v>281</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -8007,7 +8109,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>284</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -8018,190 +8120,190 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22">
+      <c r="B13" s="56" t="s">
+        <v>696</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>697</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>698</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22">
+      <c r="B14" s="52" t="s">
+        <v>699</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>700</v>
+      </c>
+      <c r="D14" s="53">
+        <v>45854</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22">
+      <c r="B15" s="52" t="s">
+        <v>702</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>703</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0.66947916666666663</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22">
+      <c r="B16" s="52" t="s">
+        <v>705</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>706</v>
+      </c>
+      <c r="D16" s="55">
+        <v>45854.669479166667</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22">
+      <c r="B17" s="52" t="s">
+        <v>744</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>708</v>
+      </c>
+      <c r="D17" s="52">
+        <v>2025</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22">
+      <c r="B18" s="72" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>710</v>
+      </c>
+      <c r="D18" s="52">
+        <v>7</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22">
+      <c r="B19" s="52" t="s">
+        <v>745</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>712</v>
+      </c>
+      <c r="D19" s="52">
+        <v>16</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22">
+      <c r="B20" s="52" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="22">
-      <c r="B13" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>697</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>698</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22">
-      <c r="B14" s="55" t="s">
-        <v>699</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>700</v>
-      </c>
-      <c r="D14" s="56">
-        <v>45854</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22">
-      <c r="B15" s="55" t="s">
-        <v>702</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>703</v>
-      </c>
-      <c r="D15" s="57">
-        <v>0.66947916666666663</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22">
-      <c r="B16" s="55" t="s">
-        <v>705</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>706</v>
-      </c>
-      <c r="D16" s="58">
-        <v>45854.669479166667</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="22">
-      <c r="B17" s="55" t="s">
-        <v>708</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>709</v>
-      </c>
-      <c r="D17" s="55">
-        <v>2025</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="22">
-      <c r="B18" s="55" t="s">
-        <v>711</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>712</v>
-      </c>
-      <c r="D18" s="55">
-        <v>7</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22">
-      <c r="B19" s="55" t="s">
+      <c r="C20" s="72" t="s">
         <v>714</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="D20" s="52">
+        <v>16</v>
+      </c>
+      <c r="E20" s="52" t="s">
         <v>715</v>
       </c>
-      <c r="D19" s="55">
-        <v>16</v>
-      </c>
-      <c r="E19" s="55" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="22">
+      <c r="B21" s="52" t="s">
+        <v>743</v>
+      </c>
+      <c r="C21" s="72" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="22">
-      <c r="B20" s="55" t="s">
+      <c r="D21" s="52">
+        <v>4</v>
+      </c>
+      <c r="E21" s="52" t="s">
         <v>717</v>
       </c>
-      <c r="C20" s="55" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="22">
+      <c r="B22" s="52" t="s">
+        <v>747</v>
+      </c>
+      <c r="C22" s="72" t="s">
         <v>718</v>
       </c>
-      <c r="D20" s="55">
-        <v>16</v>
-      </c>
-      <c r="E20" s="55" t="s">
+      <c r="D22" s="52">
+        <v>3</v>
+      </c>
+      <c r="E22" s="52" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22">
-      <c r="B21" s="55" t="s">
+    <row r="23" spans="1:5" ht="22">
+      <c r="B23" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="C23" s="72" t="s">
         <v>720</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="D23" s="52">
+        <v>2</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22">
+      <c r="B24" s="52" t="s">
+        <v>750</v>
+      </c>
+      <c r="C24" s="72" t="s">
         <v>721</v>
       </c>
-      <c r="D21" s="55">
-        <v>4</v>
-      </c>
-      <c r="E21" s="55" t="s">
+      <c r="D24" s="52">
+        <v>197</v>
+      </c>
+      <c r="E24" s="52" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="22">
-      <c r="B22" s="55" t="s">
+    <row r="25" spans="1:5" ht="22">
+      <c r="B25" s="52" t="s">
+        <v>751</v>
+      </c>
+      <c r="C25" s="72" t="s">
         <v>723</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="D25" s="52">
+        <v>28</v>
+      </c>
+      <c r="E25" s="52" t="s">
         <v>724</v>
-      </c>
-      <c r="D22" s="55">
-        <v>3</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="22">
-      <c r="B23" s="55" t="s">
-        <v>726</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>727</v>
-      </c>
-      <c r="D23" s="55">
-        <v>2</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="22">
-      <c r="B24" s="55" t="s">
-        <v>729</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>730</v>
-      </c>
-      <c r="D24" s="55">
-        <v>197</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="22">
-      <c r="B25" s="55" t="s">
-        <v>732</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>733</v>
-      </c>
-      <c r="D25" s="55">
-        <v>28</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="22">
@@ -8217,8 +8319,8 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="22">
-      <c r="A28" s="60" t="s">
-        <v>735</v>
+      <c r="A28" s="57" t="s">
+        <v>725</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8226,261 +8328,261 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="22">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="56" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="22">
-      <c r="B30" s="55" t="s">
-        <v>736</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>737</v>
+      <c r="B30" s="52" t="s">
+        <v>726</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>727</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="22">
-      <c r="B31" s="55" t="s">
-        <v>738</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>739</v>
+      <c r="B31" s="52" t="s">
+        <v>752</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>753</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="22">
-      <c r="B32" s="55" t="s">
-        <v>740</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>741</v>
+      <c r="B32" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>729</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" ht="22">
-      <c r="B33" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>743</v>
+      <c r="B33" s="52" t="s">
+        <v>754</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>730</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" ht="22">
-      <c r="B34" s="55" t="s">
-        <v>744</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>745</v>
+      <c r="B34" s="52" t="s">
+        <v>755</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>731</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="2:5" ht="19">
-      <c r="B52" s="53"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="54"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="54"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="54"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="54"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="54"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="54"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="54"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="54"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="54"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="54"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="54"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="54"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="54"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Beginner/Slides/Lec_5_6.xlsx
+++ b/Beginner/Slides/Lec_5_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C72ED-3122-C543-B024-3CC56D0F760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF206E-4FCA-AF49-995C-08BA96E32305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="875">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2534,12 +2534,369 @@
   <si>
     <t>DATE('2025-01-01', '+1 year', '-1 month')</t>
   </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Xander</t>
+  </si>
+  <si>
+    <t>Yara</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Queenie</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Ursula</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Willa</t>
+  </si>
+  <si>
+    <t>统计每个系的学生人数</t>
+  </si>
+  <si>
+    <t>SELECT department_id, COUNT(*) AS student_count</t>
+  </si>
+  <si>
+    <t>GROUP BY department_id;</t>
+  </si>
+  <si>
+    <t>统计每个性别的人数</t>
+  </si>
+  <si>
+    <t>SELECT gender, COUNT(*) AS count</t>
+  </si>
+  <si>
+    <t>GROUP BY gender;</t>
+  </si>
+  <si>
+    <t>统计各课程的平均分数</t>
+  </si>
+  <si>
+    <t>SELECT course_id, AVG(score) AS avg_score</t>
+  </si>
+  <si>
+    <t>GROUP BY course_id;</t>
+  </si>
+  <si>
+    <t>统计每门课的最低和最高成绩</t>
+  </si>
+  <si>
+    <t>SELECT course_id, MIN(score) AS min_score, MAX(score) AS max_score</t>
+  </si>
+  <si>
+    <t>统计每个老师教授的课程数量</t>
+  </si>
+  <si>
+    <t>SELECT teacher_id, COUNT(*) AS course_count</t>
+  </si>
+  <si>
+    <t>GROUP BY teacher_id;</t>
+  </si>
+  <si>
+    <t>统计每个系年龄大于20岁的学生人数</t>
+  </si>
+  <si>
+    <t>SELECT department_id, COUNT(*) AS count</t>
+  </si>
+  <si>
+    <t>WHERE age &gt; 20</t>
+  </si>
+  <si>
+    <t>统计每个学生是否有成绩（非 NULL）的课程数量</t>
+  </si>
+  <si>
+    <t>SELECT student_id, COUNT(score) AS scored_course_count</t>
+  </si>
+  <si>
+    <t>GROUP BY student_id;</t>
+  </si>
+  <si>
+    <t>统计各课程分数大于等于80的学生人数</t>
+  </si>
+  <si>
+    <t>SELECT course_id, COUNT(*) AS high_score_count</t>
+  </si>
+  <si>
+    <t>WHERE score &gt;= 80</t>
+  </si>
+  <si>
+    <t>统计每个课程是否有 NULL 成绩记录</t>
+  </si>
+  <si>
+    <t>SELECT course_id, SUM(CASE WHEN score IS NULL THEN 1 ELSE 0 END) AS null_score_count</t>
+  </si>
+  <si>
+    <t>统计每个系中学生姓名长度超过4的数量</t>
+  </si>
+  <si>
+    <t>WHERE LENGTH(name) &gt; 4</t>
+  </si>
+  <si>
+    <t>找出每个系平均年龄大于21的系</t>
+  </si>
+  <si>
+    <t>SELECT department_id, AVG(age) AS avg_age</t>
+  </si>
+  <si>
+    <t>WHERE age IS NOT NULL</t>
+  </si>
+  <si>
+    <t>GROUP BY department_id</t>
+  </si>
+  <si>
+    <t>HAVING AVG(age) &gt; 21;</t>
+  </si>
+  <si>
+    <t>找出有超过 1 个学生参加且平均分大于85的课程</t>
+  </si>
+  <si>
+    <t>SELECT course_id, COUNT(*) AS count, AVG(score) AS avg_score</t>
+  </si>
+  <si>
+    <t>WHERE score IS NOT NULL</t>
+  </si>
+  <si>
+    <t>GROUP BY course_id</t>
+  </si>
+  <si>
+    <t>HAVING COUNT(*) &gt; 1 AND AVG(score) &gt; 85;</t>
+  </si>
+  <si>
+    <t>统计每个性别下，姓名不为 NULL 的学生平均年龄，排除年龄为 NULL</t>
+  </si>
+  <si>
+    <t>SELECT gender, AVG(age) AS avg_age</t>
+  </si>
+  <si>
+    <t>WHERE name IS NOT NULL AND age IS NOT NULL</t>
+  </si>
+  <si>
+    <t>统计每个学生的总分，但只保留总分在 150 到 200 之间的记录</t>
+  </si>
+  <si>
+    <t>SELECT student_id, SUM(score) AS total_score</t>
+  </si>
+  <si>
+    <t>GROUP BY student_id</t>
+  </si>
+  <si>
+    <t>HAVING SUM(score) BETWEEN 150 AND 200;</t>
+  </si>
+  <si>
+    <t>按课程分组，计算平均分、人数，要求平均分非空且不少于2人</t>
+  </si>
+  <si>
+    <t>SELECT course_id, AVG(score) AS avg_score, COUNT(*) AS student_count</t>
+  </si>
+  <si>
+    <t>HAVING COUNT(*) &gt;= 2;</t>
+  </si>
+  <si>
+    <t>找出平均年龄最小的性别组（先分组，再排序取TOP 1）</t>
+  </si>
+  <si>
+    <t>GROUP BY gender</t>
+  </si>
+  <si>
+    <t>ORDER BY avg_age ASC</t>
+  </si>
+  <si>
+    <t>OFFSET 0 ROWS FETCH NEXT 1 ROWS ONLY;</t>
+  </si>
+  <si>
+    <t>找出所有分数为整数的课程及其平均分</t>
+  </si>
+  <si>
+    <t>WHERE score IS NOT NULL AND score = FLOOR(score)</t>
+  </si>
+  <si>
+    <t>统计每个学生的总分并计算其分数平方和（练 POWER）</t>
+  </si>
+  <si>
+    <t>SELECT student_id, SUM(score) AS total_score, SUM(POWER(score, 2)) AS sum_square</t>
+  </si>
+  <si>
+    <t>找出名字包含字母 “a” 的学生，按系分组统计人数</t>
+  </si>
+  <si>
+    <t>WHERE name IS NOT NULL AND name LIKE '%a%'</t>
+  </si>
+  <si>
+    <t>找出所有课程中，成绩波动超过20（max - min &gt; 20）的课程</t>
+  </si>
+  <si>
+    <t>SELECT course_id, MAX(score) - MIN(score) AS score_range</t>
+  </si>
+  <si>
+    <t>HAVING MAX(score) - MIN(score) &gt; 20;</t>
+  </si>
+  <si>
+    <t>GROUP BY：按照那一列分组</t>
+  </si>
+  <si>
+    <t>HAVING：分组后的条件</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2779,11 +3136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Kai Regular"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Kai Regular"/>
@@ -2794,6 +3146,47 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Kai Regular"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2901,7 +3294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2998,7 +3391,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3023,16 +3424,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3063,7 +3464,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6389858</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>130242</xdr:rowOff>
+      <xdr:rowOff>41638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3107,7 +3508,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2485658</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>58541</xdr:rowOff>
+      <xdr:rowOff>58542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3286,8 +3687,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3302,8 +3703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11277600" y="6489700"/>
-          <a:ext cx="6845300" cy="5118100"/>
+          <a:off x="12903200" y="6756400"/>
+          <a:ext cx="7353300" cy="3505200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4150,8 +4551,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4357,7 +4758,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="63" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4371,7 +4772,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -4383,7 +4784,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -4395,7 +4796,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -4407,7 +4808,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -4419,7 +4820,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -4431,7 +4832,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="63"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -4443,7 +4844,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="63"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -4455,7 +4856,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="59"/>
+      <c r="D36" s="63"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -4467,7 +4868,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="63"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -4479,7 +4880,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="59"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -4491,7 +4892,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="63"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -4503,7 +4904,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="59"/>
+      <c r="D40" s="63"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -4515,7 +4916,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="63"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -4527,7 +4928,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="63"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -4539,7 +4940,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="59"/>
+      <c r="D43" s="63"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -4551,7 +4952,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="59"/>
+      <c r="D44" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
@@ -4610,7 +5011,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="25">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="24" t="s">
         <v>736</v>
       </c>
       <c r="B61" s="42"/>
@@ -4619,29 +5020,37 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="43" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="23">
+      <c r="A63" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="B63" s="42"/>
+    </row>
+    <row r="64" spans="1:5" ht="23">
+      <c r="A64" s="24" t="s">
         <v>735</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B64" s="24" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="58" t="s">
+    <row r="65" spans="1:8" ht="25">
+      <c r="A65" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="B63" s="42"/>
-    </row>
-    <row r="65" spans="4:8" ht="25">
       <c r="E65" s="34"/>
     </row>
-    <row r="66" spans="4:8" ht="25">
+    <row r="66" spans="1:8" ht="25">
       <c r="D66" s="39"/>
     </row>
-    <row r="68" spans="4:8" ht="25">
+    <row r="68" spans="1:8" ht="25">
       <c r="D68" s="39"/>
     </row>
-    <row r="74" spans="4:8">
+    <row r="74" spans="1:8">
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
     </row>
@@ -4656,12 +5065,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EC6ABD-0E1E-7241-A025-789C197C5335}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.749992370372631"/>
-  </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -4916,10 +5322,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5000,10 +5406,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C46"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5136,10 +5545,10 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -5150,8 +5559,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="65"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="58" t="s">
         <v>485</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -5162,10 +5571,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="26" t="s">
         <v>206</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -5176,8 +5585,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="65"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -5188,10 +5597,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="26" t="s">
         <v>213</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -5202,8 +5611,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="65"/>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -5217,7 +5626,7 @@
       <c r="B22" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="58" t="s">
         <v>220</v>
       </c>
       <c r="D22" s="26" t="s">
@@ -5242,7 +5651,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="68" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5256,7 +5665,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="66"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5268,7 +5677,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="65"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -5308,10 +5717,10 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="26" t="s">
         <v>608</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -5322,8 +5731,8 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="62"/>
-      <c r="C36" s="67" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -5334,8 +5743,8 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="62"/>
-      <c r="C37" s="67" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="26" t="s">
         <v>604</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -5346,8 +5755,8 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="62"/>
-      <c r="C38" s="67" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
       <c r="D38" s="26" t="s">
@@ -5358,8 +5767,8 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="62"/>
-      <c r="C39" s="67" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
       <c r="D39" s="26" t="s">
@@ -5370,8 +5779,8 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="63"/>
-      <c r="C40" s="67" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -5382,10 +5791,10 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="26" t="s">
         <v>256</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -5396,8 +5805,8 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="62"/>
-      <c r="C42" s="67" t="s">
+      <c r="B42" s="66"/>
+      <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
       <c r="D42" s="26" t="s">
@@ -5408,8 +5817,8 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="62"/>
-      <c r="C43" s="69" t="s">
+      <c r="B43" s="66"/>
+      <c r="C43" s="59" t="s">
         <v>606</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -5423,8 +5832,8 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="62"/>
-      <c r="C44" s="67" t="s">
+      <c r="B44" s="66"/>
+      <c r="C44" s="26" t="s">
         <v>605</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -5435,8 +5844,8 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="62"/>
-      <c r="C45" s="67" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
       <c r="D45" s="26" t="s">
@@ -5450,8 +5859,8 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="63"/>
-      <c r="C46" s="67" t="s">
+      <c r="B46" s="67"/>
+      <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -5463,7 +5872,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="65" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="48" t="s">
@@ -5480,7 +5889,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="62"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="48" t="s">
         <v>272</v>
       </c>
@@ -5493,7 +5902,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="62"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="48" t="s">
         <v>275</v>
       </c>
@@ -5508,7 +5917,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="62"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="48" t="s">
         <v>278</v>
       </c>
@@ -5521,7 +5930,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="62"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="48" t="s">
         <v>281</v>
       </c>
@@ -5536,7 +5945,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="63"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="48" t="s">
         <v>284</v>
       </c>
@@ -5548,7 +5957,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="65" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -5562,7 +5971,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="62"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="26" t="s">
         <v>291</v>
       </c>
@@ -5574,7 +5983,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="62"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="26" t="s">
         <v>294</v>
       </c>
@@ -5586,7 +5995,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="62"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="26" t="s">
         <v>297</v>
       </c>
@@ -5598,7 +6007,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="63"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="26" t="s">
         <v>300</v>
       </c>
@@ -5610,7 +6019,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="65" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -5624,7 +6033,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="62"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -5636,7 +6045,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="62"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -5648,7 +6057,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="63"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -6377,9 +6786,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BA09B4-4C11-4647-8D7F-110373603660}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
   <dimension ref="A1:AH176"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8031,13 +8437,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C1EB-E120-1042-8BF4-A3ED48385142}">
   <sheetPr>
-    <tabColor theme="8"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31" defaultRowHeight="16"/>
   <cols>
@@ -8076,7 +8480,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="60" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -8087,7 +8491,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="60" t="s">
         <v>278</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -8098,7 +8502,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="60" t="s">
         <v>281</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -8184,7 +8588,7 @@
       <c r="B17" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="62" t="s">
         <v>708</v>
       </c>
       <c r="D17" s="52">
@@ -8195,10 +8599,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="22">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="62" t="s">
         <v>742</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="61" t="s">
         <v>710</v>
       </c>
       <c r="D18" s="52">
@@ -8212,7 +8616,7 @@
       <c r="B19" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="62" t="s">
         <v>712</v>
       </c>
       <c r="D19" s="52">
@@ -8226,7 +8630,7 @@
       <c r="B20" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="62" t="s">
         <v>714</v>
       </c>
       <c r="D20" s="52">
@@ -8240,7 +8644,7 @@
       <c r="B21" s="52" t="s">
         <v>743</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="62" t="s">
         <v>716</v>
       </c>
       <c r="D21" s="52">
@@ -8254,7 +8658,7 @@
       <c r="B22" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="62" t="s">
         <v>718</v>
       </c>
       <c r="D22" s="52">
@@ -8268,7 +8672,7 @@
       <c r="B23" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="62" t="s">
         <v>720</v>
       </c>
       <c r="D23" s="52">
@@ -8282,7 +8686,7 @@
       <c r="B24" s="52" t="s">
         <v>750</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="62" t="s">
         <v>721</v>
       </c>
       <c r="D24" s="52">
@@ -8296,7 +8700,7 @@
       <c r="B25" s="52" t="s">
         <v>751</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="62" t="s">
         <v>723</v>
       </c>
       <c r="D25" s="52">
@@ -8592,12 +8996,1410 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="21" style="71" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="18" style="71" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="71" customWidth="1"/>
+    <col min="6" max="7" width="31.83203125" style="71"/>
+    <col min="8" max="8" width="31.83203125" style="74"/>
+    <col min="9" max="16384" width="31.83203125" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="76" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>757</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>760</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="72">
+        <v>3001</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" s="72">
+        <v>20</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E2" s="72">
+        <v>1</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="75" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="72">
+        <v>3002</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>763</v>
+      </c>
+      <c r="C3" s="72">
+        <v>21</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E3" s="72">
+        <v>2</v>
+      </c>
+      <c r="G3" s="73"/>
+      <c r="H3" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="72">
+        <v>3003</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>765</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="75" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="72">
+        <v>3004</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72">
+        <v>22</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E5" s="72">
+        <v>3</v>
+      </c>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="72">
+        <v>3005</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>766</v>
+      </c>
+      <c r="C6" s="72">
+        <v>19</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="72">
+        <v>1</v>
+      </c>
+      <c r="G6" s="78"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="72">
+        <v>3006</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>767</v>
+      </c>
+      <c r="C7" s="72">
+        <v>24</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" s="72">
+        <v>2</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="72">
+        <v>3007</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>768</v>
+      </c>
+      <c r="C8" s="72">
+        <v>20</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" s="72">
+        <v>3</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="75" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="72">
+        <v>3008</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>769</v>
+      </c>
+      <c r="C9" s="72">
+        <v>23</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="72">
+        <v>3009</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>770</v>
+      </c>
+      <c r="C10" s="72">
+        <v>20</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E10" s="72">
+        <v>2</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="75" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="72">
+        <v>3010</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>771</v>
+      </c>
+      <c r="C11" s="72">
+        <v>22</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E11" s="72">
+        <v>1</v>
+      </c>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="72">
+        <v>3011</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>772</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E12" s="72">
+        <v>3</v>
+      </c>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="72">
+        <v>3012</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="C13" s="72">
+        <v>25</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E13" s="72">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="72">
+        <v>3013</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="C14" s="72">
+        <v>20</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E14" s="72">
+        <v>2</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="75" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="72">
+        <v>3014</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="C15" s="72">
+        <v>28</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E15" s="72">
+        <v>3</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="72">
+        <v>3015</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>776</v>
+      </c>
+      <c r="C16" s="72">
+        <v>21</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E16" s="72">
+        <v>1</v>
+      </c>
+      <c r="G16" s="73"/>
+      <c r="H16" s="75" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="72">
+        <v>3016</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>777</v>
+      </c>
+      <c r="C17" s="72">
+        <v>30</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E17" s="72">
+        <v>2</v>
+      </c>
+      <c r="G17" s="73"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="72">
+        <v>3017</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>778</v>
+      </c>
+      <c r="C18" s="72">
+        <v>22</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E18" s="72">
+        <v>1</v>
+      </c>
+      <c r="G18" s="78"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="72">
+        <v>3018</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" s="72">
+        <v>23</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>780</v>
+      </c>
+      <c r="E19" s="72">
+        <v>2</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="72">
+        <v>3019</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" s="72">
+        <v>20</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E20" s="72"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="75" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="72">
+        <v>3020</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>782</v>
+      </c>
+      <c r="C21" s="72">
+        <v>19</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E21" s="72">
+        <v>3</v>
+      </c>
+      <c r="G21" s="73"/>
+      <c r="H21" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="72">
+        <v>3021</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>783</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E22" s="72">
+        <v>1</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="75" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="72">
+        <v>3022</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>784</v>
+      </c>
+      <c r="C23" s="72">
+        <v>20</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E23" s="72">
+        <v>2</v>
+      </c>
+      <c r="G23" s="73"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="72">
+        <v>3023</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>785</v>
+      </c>
+      <c r="C24" s="72">
+        <v>21</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E24" s="72">
+        <v>3</v>
+      </c>
+      <c r="G24" s="78"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="72">
+        <v>3024</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>786</v>
+      </c>
+      <c r="C25" s="72">
+        <v>22</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E25" s="72">
+        <v>1</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="72">
+        <v>3025</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>787</v>
+      </c>
+      <c r="C26" s="72">
+        <v>20</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E26" s="72">
+        <v>2</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="75" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="72">
+        <v>3026</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>788</v>
+      </c>
+      <c r="C27" s="72">
+        <v>23</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E27" s="72">
+        <v>3</v>
+      </c>
+      <c r="G27" s="73"/>
+      <c r="H27" s="75" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="72">
+        <v>3027</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>789</v>
+      </c>
+      <c r="C28" s="72">
+        <v>25</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E28" s="72">
+        <v>1</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="75" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="72">
+        <v>3028</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>790</v>
+      </c>
+      <c r="C29" s="72">
+        <v>26</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E29" s="72"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="72">
+        <v>3029</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>791</v>
+      </c>
+      <c r="C30" s="72">
+        <v>24</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E30" s="72">
+        <v>2</v>
+      </c>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="72">
+        <v>3030</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>792</v>
+      </c>
+      <c r="C31" s="72">
+        <v>18</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E31" s="72">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="72">
+        <v>3031</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>793</v>
+      </c>
+      <c r="C32" s="72">
+        <v>27</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E32" s="72">
+        <v>3</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="75" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="72">
+        <v>3032</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>794</v>
+      </c>
+      <c r="C33" s="72">
+        <v>19</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E33" s="72">
+        <v>2</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="72">
+        <v>3033</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>795</v>
+      </c>
+      <c r="C34" s="72">
+        <v>28</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E34" s="72">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="75" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="72">
+        <v>3034</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>796</v>
+      </c>
+      <c r="C35" s="72">
+        <v>21</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E35" s="72">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="75" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="72">
+        <v>3035</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>797</v>
+      </c>
+      <c r="C36" s="72">
+        <v>22</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E36" s="72"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="72">
+        <v>3036</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>798</v>
+      </c>
+      <c r="C37" s="72">
+        <v>20</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E37" s="72">
+        <v>2</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="72">
+        <v>3037</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>799</v>
+      </c>
+      <c r="C38" s="72">
+        <v>23</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E38" s="72">
+        <v>3</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="72">
+        <v>3038</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>800</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E39" s="72">
+        <v>1</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="72">
+        <v>3039</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>801</v>
+      </c>
+      <c r="C40" s="72">
+        <v>21</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E40" s="72">
+        <v>2</v>
+      </c>
+      <c r="H40" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="72">
+        <v>3040</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>802</v>
+      </c>
+      <c r="C41" s="72">
+        <v>20</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E41" s="72">
+        <v>1</v>
+      </c>
+      <c r="H41" s="75" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="72">
+        <v>3041</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>803</v>
+      </c>
+      <c r="C42" s="72">
+        <v>29</v>
+      </c>
+      <c r="D42" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E42" s="72">
+        <v>3</v>
+      </c>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="72">
+        <v>3042</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>804</v>
+      </c>
+      <c r="C43" s="72">
+        <v>24</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E43" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="72">
+        <v>3043</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>805</v>
+      </c>
+      <c r="C44" s="72">
+        <v>26</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E44" s="72">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="72">
+        <v>3044</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>806</v>
+      </c>
+      <c r="C45" s="72">
+        <v>22</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E45" s="72">
+        <v>3</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="72">
+        <v>3045</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>807</v>
+      </c>
+      <c r="C46" s="72">
+        <v>20</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E46" s="72">
+        <v>1</v>
+      </c>
+      <c r="H46" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="72">
+        <v>3046</v>
+      </c>
+      <c r="B47" s="72" t="s">
+        <v>808</v>
+      </c>
+      <c r="C47" s="72">
+        <v>19</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E47" s="72">
+        <v>2</v>
+      </c>
+      <c r="H47" s="75" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="72">
+        <v>3047</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>809</v>
+      </c>
+      <c r="C48" s="72">
+        <v>27</v>
+      </c>
+      <c r="D48" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="75" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="72">
+        <v>3048</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>810</v>
+      </c>
+      <c r="C49" s="72">
+        <v>28</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E49" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="72">
+        <v>3049</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>811</v>
+      </c>
+      <c r="C50" s="72">
+        <v>23</v>
+      </c>
+      <c r="D50" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="E50" s="72">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="72">
+        <v>3050</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>812</v>
+      </c>
+      <c r="C51" s="72">
+        <v>21</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="E51" s="72">
+        <v>2</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="H52" s="75" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="H53" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="H54" s="75" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="G56" s="22" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="G57" s="24"/>
+      <c r="H57" s="75" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="H58" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="H59" s="75" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="H60" s="75" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="G62" s="20" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="G63" s="21"/>
+      <c r="H63" s="75" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="H64" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="H65" s="75" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="H66" s="75" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="H67" s="75" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70" s="20" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71" s="21"/>
+      <c r="H71" s="75" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="H72" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="H73" s="75" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="H74" s="75" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="H75" s="75" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="7:8">
+      <c r="G78" s="20" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
+      <c r="G79" s="21"/>
+      <c r="H79" s="75" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
+      <c r="H80" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="H81" s="75" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
+      <c r="H82" s="75" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85" s="20" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8">
+      <c r="G86" s="21"/>
+      <c r="H86" s="75" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8">
+      <c r="H87" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
+      <c r="H88" s="75" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="H89" s="75" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="H90" s="75" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8">
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="7:8">
+      <c r="G93" s="20" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8">
+      <c r="G94" s="21"/>
+      <c r="H94" s="75" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="H95" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="H96" s="75" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="H97" s="75" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="H98" s="75" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8">
+      <c r="G100" s="21"/>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101" s="20" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="G102" s="21"/>
+      <c r="H102" s="75" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
+      <c r="H103" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
+      <c r="H104" s="75" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8">
+      <c r="H105" s="75" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8">
+      <c r="H106" s="75" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8">
+      <c r="H107" s="75" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8">
+      <c r="G109" s="21"/>
+    </row>
+    <row r="110" spans="7:8">
+      <c r="G110" s="20" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8">
+      <c r="G111" s="21"/>
+      <c r="H111" s="75" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8">
+      <c r="H112" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8">
+      <c r="H113" s="75" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8">
+      <c r="H114" s="75" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8">
+      <c r="G116" s="21"/>
+    </row>
+    <row r="117" spans="7:8">
+      <c r="G117" s="20" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8">
+      <c r="G118" s="21"/>
+      <c r="H118" s="75" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8">
+      <c r="H119" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8">
+      <c r="H120" s="75" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8">
+      <c r="H121" s="75" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8">
+      <c r="G123" s="21"/>
+    </row>
+    <row r="124" spans="7:8">
+      <c r="G124" s="20" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8">
+      <c r="G125" s="21"/>
+      <c r="H125" s="75" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8">
+      <c r="H126" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8">
+      <c r="H127" s="75" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8">
+      <c r="H128" s="75" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8">
+      <c r="G130" s="21"/>
+    </row>
+    <row r="131" spans="7:8">
+      <c r="G131" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8">
+      <c r="G132" s="21"/>
+      <c r="H132" s="75" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8">
+      <c r="H133" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8">
+      <c r="H134" s="75" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8">
+      <c r="H135" s="75" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8">
+      <c r="H136" s="75" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7">
+      <c r="G149" s="24"/>
+    </row>
+    <row r="150" spans="7:7">
+      <c r="G150" s="24"/>
+    </row>
+    <row r="151" spans="7:7">
+      <c r="G151" s="24"/>
+    </row>
+    <row r="152" spans="7:7">
+      <c r="G152" s="24"/>
+    </row>
+    <row r="153" spans="7:7">
+      <c r="G153" s="24"/>
+    </row>
+    <row r="154" spans="7:7">
+      <c r="G154" s="24"/>
+    </row>
+    <row r="155" spans="7:7">
+      <c r="G155" s="24"/>
+    </row>
+    <row r="156" spans="7:7">
+      <c r="G156" s="24"/>
+    </row>
+    <row r="157" spans="7:7">
+      <c r="G157" s="24"/>
+    </row>
+    <row r="158" spans="7:7">
+      <c r="G158" s="24"/>
+    </row>
+    <row r="159" spans="7:7">
+      <c r="G159" s="24"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Beginner/Slides/Lec_5_6.xlsx
+++ b/Beginner/Slides/Lec_5_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF206E-4FCA-AF49-995C-08BA96E32305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABF119-DB0A-4542-893C-057688CA830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
@@ -21,6 +21,9 @@
     <sheet name="Date" sheetId="12" r:id="rId6"/>
     <sheet name="Group" sheetId="13" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Group!$A$1:$E$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -938,9 +941,6 @@
     <t xml:space="preserve">🎯 聚合函数 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COUNT(*) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COUNT(*) → 10 </t>
   </si>
   <si>
@@ -972,9 +972,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 最大值 / 最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GROUP_CONCAT(column) </t>
   </si>
   <si>
     <t xml:space="preserve"> GROUP_CONCAT(name) → 'Tom,Jim,Amy' </t>
@@ -2472,9 +2469,6 @@
     <t>LIMIT：返回前几条数据</t>
   </si>
   <si>
-    <t>ORDER BY：排序</t>
-  </si>
-  <si>
     <t>WHERE：设置条件</t>
   </si>
   <si>
@@ -2709,9 +2703,6 @@
     <t>统计每个系的学生人数</t>
   </si>
   <si>
-    <t>SELECT department_id, COUNT(*) AS student_count</t>
-  </si>
-  <si>
     <t>GROUP BY department_id;</t>
   </si>
   <si>
@@ -2886,17 +2877,29 @@
     <t>HAVING MAX(score) - MIN(score) &gt; 20;</t>
   </si>
   <si>
-    <t>GROUP BY：按照那一列分组</t>
-  </si>
-  <si>
     <t>HAVING：分组后的条件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDER BY：排序col </t>
+  </si>
+  <si>
+    <t>GROUP BY：按照那一列分组 (Col)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COUNT(*,col) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GROUP_CONCAT(name) </t>
+  </si>
+  <si>
+    <t>SELECT department_id, COUNT(student_id) AS student_count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3188,8 +3191,19 @@
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3217,6 +3231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3294,7 +3314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3400,6 +3420,16 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3424,16 +3454,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3506,7 +3531,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2485658</xdr:colOff>
+      <xdr:colOff>1658681</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>58542</xdr:rowOff>
     </xdr:to>
@@ -4551,20 +4576,20 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="86" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32">
       <c r="A1" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27">
@@ -4572,7 +4597,7 @@
     </row>
     <row r="3" spans="1:3" ht="27">
       <c r="A3" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27">
@@ -4758,7 +4783,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="71" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4772,7 +4797,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -4784,7 +4809,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -4796,7 +4821,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="63"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -4808,7 +4833,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="63"/>
+      <c r="D32" s="71"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -4820,7 +4845,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="71"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -4832,7 +4857,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="71"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -4844,7 +4869,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -4856,7 +4881,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="71"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -4868,7 +4893,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -4880,7 +4905,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="71"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -4892,7 +4917,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -4904,7 +4929,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="71"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -4916,7 +4941,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -4928,7 +4953,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="71"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -4940,7 +4965,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="71"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -4952,11 +4977,11 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="71"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>91</v>
@@ -4980,7 +5005,7 @@
     <row r="57" spans="1:5" ht="25">
       <c r="A57" s="14"/>
       <c r="C57" s="39" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25">
@@ -4989,58 +5014,58 @@
       </c>
       <c r="B58" s="42"/>
       <c r="E58" s="34" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25">
       <c r="A59" s="14" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B59" s="42"/>
       <c r="E59" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25">
       <c r="A60" s="14" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B60" s="42"/>
       <c r="E60" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25">
       <c r="A61" s="24" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B61" s="42"/>
       <c r="E61" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="43" t="s">
-        <v>873</v>
+      <c r="A62" s="79" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="43" t="s">
-        <v>874</v>
+      <c r="A63" s="79" t="s">
+        <v>869</v>
       </c>
       <c r="B63" s="42"/>
     </row>
     <row r="64" spans="1:5" ht="23">
       <c r="A64" s="24" t="s">
-        <v>735</v>
+        <v>870</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25">
       <c r="A65" s="24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E65" s="34"/>
     </row>
@@ -5322,10 +5347,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5411,9 +5436,7 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -5516,7 +5539,7 @@
         <v>189</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5545,23 +5568,23 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="76" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="69"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="58" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>203</v>
@@ -5571,7 +5594,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="76" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5585,7 +5608,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="69"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -5597,7 +5620,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="76" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5611,7 +5634,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="69"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -5651,7 +5674,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="76" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5665,7 +5688,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="70"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5677,7 +5700,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="69"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -5717,11 +5740,11 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="73" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>241</v>
@@ -5731,7 +5754,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="66"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -5743,9 +5766,9 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="66"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="26" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>246</v>
@@ -5755,31 +5778,31 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="66"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="66"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="67"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -5791,7 +5814,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="73" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -5805,7 +5828,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="66"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -5817,49 +5840,49 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="66"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="59" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>262</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="66"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="66"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>265</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="67"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -5867,15 +5890,15 @@
         <v>267</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="81" t="s">
         <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -5885,12 +5908,12 @@
         <v>271</v>
       </c>
       <c r="L47" s="47" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="66"/>
-      <c r="C48" s="48" t="s">
+      <c r="B48" s="74"/>
+      <c r="C48" s="81" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -5902,8 +5925,8 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="66"/>
-      <c r="C49" s="48" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="81" t="s">
         <v>275</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -5913,12 +5936,12 @@
         <v>277</v>
       </c>
       <c r="L49" s="47" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="66"/>
-      <c r="C50" s="48" t="s">
+      <c r="B50" s="74"/>
+      <c r="C50" s="81" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -5930,8 +5953,8 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="66"/>
-      <c r="C51" s="48" t="s">
+      <c r="B51" s="74"/>
+      <c r="C51" s="81" t="s">
         <v>281</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -5941,12 +5964,12 @@
         <v>283</v>
       </c>
       <c r="L51" s="46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="67"/>
-      <c r="C52" s="48" t="s">
+      <c r="B52" s="75"/>
+      <c r="C52" s="81" t="s">
         <v>284</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -5957,115 +5980,115 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="80" t="s">
+        <v>872</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E53" s="26" t="s">
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="74"/>
+      <c r="C54" s="80" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="66"/>
-      <c r="C54" s="26" t="s">
+      <c r="D54" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="E54" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E54" s="26" t="s">
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="74"/>
+      <c r="C55" s="80" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="66"/>
-      <c r="C55" s="26" t="s">
+      <c r="D55" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="E55" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E55" s="26" t="s">
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="74"/>
+      <c r="C56" s="80" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="66"/>
-      <c r="C56" s="26" t="s">
+      <c r="D56" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="E56" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="E56" s="26" t="s">
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="75"/>
+      <c r="C57" s="80" t="s">
+        <v>873</v>
+      </c>
+      <c r="D57" s="26" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="67"/>
-      <c r="C57" s="26" t="s">
+      <c r="E57" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="D57" s="26" t="s">
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="C58" s="26" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="65" t="s">
+      <c r="D58" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="E58" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="D58" s="26" t="s">
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="74"/>
+      <c r="C59" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="D59" s="26" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="66"/>
-      <c r="C59" s="26" t="s">
+      <c r="E59" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="D59" s="26" t="s">
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="74"/>
+      <c r="C60" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="D60" s="26" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="66"/>
-      <c r="C60" s="26" t="s">
+      <c r="E60" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="D60" s="26" t="s">
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="75"/>
+      <c r="C61" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="D61" s="26" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="67"/>
-      <c r="C61" s="26" t="s">
+      <c r="E61" s="26" t="s">
         <v>313</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="62" spans="2:12">
@@ -6379,58 +6402,58 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27">
       <c r="A1" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27">
       <c r="A2" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="A3" s="37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27">
       <c r="A4" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27">
       <c r="A5" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27">
       <c r="A6" s="37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27">
       <c r="A7" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27">
@@ -6441,68 +6464,68 @@
     <row r="9" spans="1:10" ht="27">
       <c r="A9" s="37"/>
       <c r="J9" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27">
       <c r="A10" s="37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27">
       <c r="A11" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27">
       <c r="A12" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="27">
       <c r="A13" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27">
       <c r="A14" s="37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="27">
       <c r="A15" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="27">
       <c r="A16" s="37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="27">
       <c r="A17" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="27">
@@ -6510,106 +6533,106 @@
         <v>100</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="27">
       <c r="A19" s="37"/>
       <c r="J19" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="27">
       <c r="A20" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="27">
       <c r="A21" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27">
       <c r="A22" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27">
       <c r="A23" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="27">
       <c r="A24" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="27">
       <c r="A25" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="27">
       <c r="A26" s="37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="27">
       <c r="A27" s="37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27">
       <c r="A28" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="27">
       <c r="A29" s="37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="27">
       <c r="A30" s="37" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27">
       <c r="A31" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27">
@@ -6617,18 +6640,18 @@
         <v>100</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="27">
       <c r="A33" s="37"/>
       <c r="J33" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="27">
       <c r="A34" s="37" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="27">
@@ -6636,84 +6659,84 @@
         <v>99</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="27">
       <c r="A36" s="37" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J36" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="27">
       <c r="A37" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="27">
       <c r="A38" s="37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="27">
       <c r="A39" s="37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27">
       <c r="A40" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="27">
       <c r="A41" s="37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="27">
       <c r="A42" s="37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="27">
       <c r="A43" s="37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="27">
       <c r="A44" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="27">
       <c r="A45" s="37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="27">
@@ -6726,52 +6749,52 @@
     </row>
     <row r="48" spans="1:10" ht="27">
       <c r="A48" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="27">
       <c r="A49" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="27">
       <c r="A50" s="37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="27">
       <c r="A51" s="37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="27">
       <c r="A52" s="37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="27">
       <c r="A53" s="37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="27">
       <c r="A54" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="27">
       <c r="A55" s="37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="27">
       <c r="A56" s="37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="27">
       <c r="A57" s="37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="27">
@@ -6798,53 +6821,53 @@
   <sheetData>
     <row r="1" spans="1:34" ht="17">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AC1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="17">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AC2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="18">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AH3" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="17">
@@ -6853,1580 +6876,1580 @@
       </c>
       <c r="B4" s="1"/>
       <c r="H4" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AC4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AH4" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="18">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AC5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="17">
       <c r="B6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="18">
       <c r="B7" s="15"/>
       <c r="G7" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AC7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="17">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="W8" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC8" t="s">
         <v>571</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="18">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B9" s="1"/>
       <c r="O9" s="41" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AH9" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="17">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AC10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AH10" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="18">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AH11" s="15" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="17">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B12" s="15"/>
       <c r="G12" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AC12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="18">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AC13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="B14" s="1"/>
       <c r="G14" s="42" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AC14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="18">
       <c r="H15" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AH15" s="15" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="17">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="W16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AC16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AH16" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="18">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="W17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AC17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AH17" s="15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="17">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AC19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="17">
       <c r="B20" s="1"/>
       <c r="H20" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="W20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AC20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="20">
       <c r="G21" s="42" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="W21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AH21" s="15" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="17">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B22" s="15"/>
       <c r="H22" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="W22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AC22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AH22" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="17">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B23" s="15"/>
       <c r="G23" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AC23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AH23" s="15" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="17">
       <c r="H24" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AC24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B25" s="1"/>
       <c r="G25" s="42" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AC25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="17">
       <c r="A26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AC26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="17">
       <c r="A27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B27" s="15"/>
       <c r="W27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AH27" s="15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="17">
       <c r="A28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B28" s="15"/>
       <c r="G28" s="42" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="W28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AC28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH28" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="17">
       <c r="H29" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AC29" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AH29" s="15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="17">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B30" s="1"/>
       <c r="H30" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="W30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AC30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AC31" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="17">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B32" s="15"/>
       <c r="H32" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="W32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AC32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="17">
       <c r="A33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B33" s="15"/>
       <c r="H33" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AH33" s="15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="17">
       <c r="G34" s="42" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W34" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AC34" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AH34" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="17">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B35" s="1"/>
       <c r="H35" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AC35" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AH35" s="15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="17">
       <c r="A36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W36" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AC36" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="W37" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AC37" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="W38" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="17">
       <c r="H39" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AC39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AH39" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="17">
       <c r="H40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W40" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AC40" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AH40" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H41" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AC41" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H42" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="W42" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AC42" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W43" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AC43" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="17">
       <c r="A44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H44" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W44" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AH44" s="15" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="17">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B45" s="1"/>
       <c r="H45" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W45" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AC45" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AH45" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:34" ht="17">
       <c r="A46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H46" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AC46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AH46" s="15" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="17">
       <c r="B47" s="15"/>
       <c r="H47" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W47" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AC47" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="17">
       <c r="B48" s="15"/>
       <c r="W48" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AC48" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W49" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AC49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="17">
       <c r="A50" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B50" s="1"/>
       <c r="H50" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W50" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH50" s="15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:34" ht="17">
       <c r="A51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H51" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AC51" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AH51" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:34" ht="17">
       <c r="A52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B52" s="15"/>
       <c r="H52" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W52" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AC52" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="17">
       <c r="B53" s="15"/>
       <c r="H53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W53" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AC53" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W54" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AC54" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="17">
       <c r="A55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B55" s="1"/>
       <c r="G55" s="42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W55" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AH55" s="15" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="17">
       <c r="A56" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H56" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AC56" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AH56" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="17">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B57" s="15"/>
       <c r="H57" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W57" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AC57" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AH57" s="15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="17">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B58" s="15"/>
       <c r="H58" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W58" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AC58" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:34">
       <c r="A59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H59" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="W59" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AC59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="60" spans="1:34">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B60" s="1"/>
       <c r="H60" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W60" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="17">
       <c r="AC61" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AH61" s="15" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="17">
       <c r="A62" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AC62" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AH62" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="17">
       <c r="A63" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H63" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AC63" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AH63" s="15" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="64" spans="1:34">
       <c r="A64" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H64" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AC64" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:34">
       <c r="A65" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H65" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="1:34">
       <c r="H66" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AC66" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="17">
       <c r="A67" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AC67" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AH67" s="15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="17">
       <c r="A68" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AC68" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AH68" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="17">
       <c r="A69" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AC69" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AH69" s="15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70" spans="1:34">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H70" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:34">
       <c r="A71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H71" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" spans="1:34">
       <c r="A72" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H72" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AC72" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="17">
       <c r="A73" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B73" s="1"/>
       <c r="H73" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AH73" s="15" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="17">
       <c r="H74" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AC74" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AH74" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="17">
       <c r="B75" s="15"/>
       <c r="AC75" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AH75" s="15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="17">
       <c r="A76" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B76" s="15"/>
       <c r="AC76" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="1:34" ht="17">
       <c r="A77" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B77" s="15"/>
       <c r="AC77" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="17">
       <c r="A78" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B78" s="15"/>
     </row>
     <row r="79" spans="1:34" ht="17">
       <c r="A79" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B79" s="15"/>
       <c r="AC79" t="s">
         <v>101</v>
       </c>
       <c r="AH79" s="15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="1:34" ht="17">
       <c r="A80" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B80" s="15"/>
       <c r="AC80" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AH80" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81" spans="1:34" ht="17">
       <c r="A81" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AC81" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AH81" s="15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:34">
       <c r="B82" s="1"/>
       <c r="AC82" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:34">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AC83" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="1:34">
       <c r="A84" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AC84" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="1:34" ht="17">
       <c r="A85" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AC85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH85" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:34" ht="17">
       <c r="A86" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AH86" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="17">
       <c r="AC87" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AH87" s="15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="1:34">
       <c r="A88" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AC88" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:34">
       <c r="A89" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AC89" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH89" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="1:34">
       <c r="A90" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="17">
       <c r="A91" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AC91" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AH91" s="15" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="17">
       <c r="AC92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AH92" s="15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="93" spans="1:34" ht="17">
       <c r="A93" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AC93" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH93" s="15" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="94" spans="1:34">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:34">
       <c r="A95" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC95" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AH95" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="96" spans="1:34">
       <c r="A96" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AC96" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="17">
       <c r="A97" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AC97" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH97" s="15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="17">
       <c r="A98" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AH98" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:34">
       <c r="A100" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AH100" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:34">
       <c r="A101" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="17">
       <c r="A102" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AH102" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="17">
       <c r="A103" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AH103" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:34">
       <c r="AH105" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="17">
       <c r="A107" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AH107" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="17">
       <c r="AH108" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:34">
       <c r="A110" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AH110" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="17">
       <c r="AH112" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="113" spans="1:34" ht="17">
       <c r="A113" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AH113" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:34">
       <c r="A114" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:34">
       <c r="A115" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AH115" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116" spans="1:34">
       <c r="A116" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:34" ht="17">
       <c r="A117" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH117" s="15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:34" ht="17">
       <c r="AH118" s="15" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:34">
       <c r="A119" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:34">
       <c r="A120" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AH120" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" spans="1:34" ht="17">
       <c r="A122" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AH122" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:34" ht="17">
       <c r="A123" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AH123" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:34">
       <c r="A125" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AH125" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="126" spans="1:34">
       <c r="A126" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="127" spans="1:34" ht="17">
       <c r="AH127" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="128" spans="1:34" ht="17">
       <c r="A128" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AH128" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="1:34">
       <c r="A129" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="1:34">
       <c r="A130" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AH130" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="131" spans="1:34">
       <c r="A131" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="1:34" ht="17">
       <c r="AH132" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="1:34" ht="17">
       <c r="A133" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AH133" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="134" spans="1:34" ht="17">
       <c r="A134" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AH134" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" spans="1:34" ht="17">
       <c r="AH135" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="1:34">
       <c r="A136" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="137" spans="1:34">
       <c r="A137" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AH137" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:34" ht="17">
       <c r="A139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AH139" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="140" spans="1:34" ht="17">
       <c r="A140" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AH140" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:34" ht="17">
       <c r="AH141" s="15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="142" spans="1:34" ht="17">
       <c r="A142" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AH142" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="143" spans="1:34">
       <c r="A143" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8441,7 +8464,9 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31" defaultRowHeight="16"/>
   <cols>
@@ -8525,18 +8550,18 @@
     </row>
     <row r="11" spans="1:5" ht="20">
       <c r="A11" s="57" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22">
       <c r="B13" s="56" t="s">
+        <v>694</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>696</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>697</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>698</v>
       </c>
       <c r="E13" s="56" t="s">
         <v>116</v>
@@ -8544,170 +8569,170 @@
     </row>
     <row r="14" spans="1:5" ht="22">
       <c r="B14" s="52" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D14" s="53">
         <v>45854</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22">
       <c r="B15" s="52" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D15" s="54">
         <v>0.66947916666666663</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22">
       <c r="B16" s="52" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D16" s="55">
         <v>45854.669479166667</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22">
       <c r="B17" s="52" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D17" s="52">
         <v>2025</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22">
       <c r="B18" s="62" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D18" s="52">
         <v>7</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22">
       <c r="B19" s="52" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D19" s="52">
         <v>16</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22">
       <c r="B20" s="52" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D20" s="52">
         <v>16</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22">
       <c r="B21" s="52" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D21" s="52">
         <v>4</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22">
       <c r="B22" s="52" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D22" s="52">
         <v>3</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22">
       <c r="B23" s="52" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D23" s="52">
         <v>2</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="22">
       <c r="B24" s="52" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D24" s="52">
         <v>197</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="22">
       <c r="B25" s="52" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D25" s="52">
         <v>28</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="22">
@@ -8724,7 +8749,7 @@
     </row>
     <row r="28" spans="1:5" ht="22">
       <c r="A28" s="57" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8743,50 +8768,50 @@
     </row>
     <row r="30" spans="1:5" ht="22">
       <c r="B30" s="52" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="22">
       <c r="B31" s="52" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="22">
       <c r="B32" s="52" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" ht="22">
       <c r="B33" s="52" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" ht="22">
       <c r="B34" s="52" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -9005,1011 +9030,1013 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="21" style="71" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="18" style="71" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="71" customWidth="1"/>
-    <col min="6" max="7" width="31.83203125" style="71"/>
-    <col min="8" max="8" width="31.83203125" style="74"/>
-    <col min="9" max="16384" width="31.83203125" style="71"/>
+    <col min="1" max="1" width="23.83203125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="63" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="63" customWidth="1"/>
+    <col min="6" max="7" width="31.83203125" style="63"/>
+    <col min="8" max="8" width="31.83203125" style="66"/>
+    <col min="9" max="16384" width="31.83203125" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="68" t="s">
         <v>756</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="E1" s="68" t="s">
         <v>757</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="G1" s="69" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="64">
+        <v>3001</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>758</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="C2" s="64">
+        <v>20</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>759</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E2" s="64">
+        <v>1</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="82" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="64">
+        <v>3002</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>760</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="C3" s="64">
+        <v>21</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E3" s="64">
+        <v>2</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="82" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="64">
+        <v>3003</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="82" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="64">
+        <v>3004</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64">
+        <v>22</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E5" s="64">
+        <v>3</v>
+      </c>
+      <c r="G5" s="65"/>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="64">
+        <v>3005</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>763</v>
+      </c>
+      <c r="C6" s="64">
+        <v>19</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="83"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="64">
+        <v>3006</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" s="64">
+        <v>24</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E7" s="64">
+        <v>2</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="64">
+        <v>3007</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>765</v>
+      </c>
+      <c r="C8" s="64">
+        <v>20</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E8" s="64">
+        <v>3</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="67" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="72">
-        <v>3001</v>
-      </c>
-      <c r="B2" s="72" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="64">
+        <v>3008</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="C9" s="64">
+        <v>23</v>
+      </c>
+      <c r="D9" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="C2" s="72">
+      <c r="E9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="67" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="64">
+        <v>3009</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>767</v>
+      </c>
+      <c r="C10" s="64">
         <v>20</v>
       </c>
-      <c r="D2" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E2" s="72">
+      <c r="D10" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E10" s="64">
+        <v>2</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="67" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="64">
+        <v>3010</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>768</v>
+      </c>
+      <c r="C11" s="64">
+        <v>22</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E11" s="64">
         <v>1</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="75" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="72">
-        <v>3002</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>763</v>
-      </c>
-      <c r="C3" s="72">
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="64">
+        <v>3011</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E12" s="64">
+        <v>3</v>
+      </c>
+      <c r="G12" s="70"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="64">
+        <v>3012</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>770</v>
+      </c>
+      <c r="C13" s="64">
+        <v>25</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E13" s="64">
+        <v>1</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="64">
+        <v>3013</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="C14" s="64">
+        <v>20</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E14" s="64">
+        <v>2</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="67" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="64">
+        <v>3014</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="C15" s="64">
+        <v>28</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" s="64">
+        <v>3</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="64">
+        <v>3015</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="C16" s="64">
         <v>21</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E3" s="72">
+      <c r="D16" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="67" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="64">
+        <v>3016</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>774</v>
+      </c>
+      <c r="C17" s="64">
+        <v>30</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E17" s="64">
         <v>2</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="75" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="72">
-        <v>3003</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>765</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="75" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="72">
-        <v>3004</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72">
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="64">
+        <v>3017</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>775</v>
+      </c>
+      <c r="C18" s="64">
         <v>22</v>
       </c>
-      <c r="D5" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E5" s="72">
+      <c r="D18" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E18" s="64">
+        <v>1</v>
+      </c>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="64">
+        <v>3018</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="C19" s="64">
+        <v>23</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>777</v>
+      </c>
+      <c r="E19" s="64">
+        <v>2</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="64">
+        <v>3019</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>778</v>
+      </c>
+      <c r="C20" s="64">
+        <v>20</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="67" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="64">
+        <v>3020</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>779</v>
+      </c>
+      <c r="C21" s="64">
+        <v>19</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E21" s="64">
         <v>3</v>
       </c>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="72">
-        <v>3005</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>766</v>
-      </c>
-      <c r="C6" s="72">
+      <c r="G21" s="65"/>
+      <c r="H21" s="67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="64">
+        <v>3021</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>780</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E22" s="64">
+        <v>1</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="67" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="64">
+        <v>3022</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" s="64">
+        <v>20</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E23" s="64">
+        <v>2</v>
+      </c>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="64">
+        <v>3023</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>782</v>
+      </c>
+      <c r="C24" s="64">
+        <v>21</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E24" s="64">
+        <v>3</v>
+      </c>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="64">
+        <v>3024</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="C25" s="64">
+        <v>22</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E25" s="64">
+        <v>1</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="64">
+        <v>3025</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>784</v>
+      </c>
+      <c r="C26" s="64">
+        <v>20</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E26" s="64">
+        <v>2</v>
+      </c>
+      <c r="G26" s="70"/>
+      <c r="H26" s="67" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="64">
+        <v>3026</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" s="64">
+        <v>23</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E27" s="64">
+        <v>3</v>
+      </c>
+      <c r="G27" s="65"/>
+      <c r="H27" s="67" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="64">
+        <v>3027</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>786</v>
+      </c>
+      <c r="C28" s="64">
+        <v>25</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E28" s="64">
+        <v>1</v>
+      </c>
+      <c r="G28" s="65"/>
+      <c r="H28" s="67" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="64">
+        <v>3028</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>787</v>
+      </c>
+      <c r="C29" s="64">
+        <v>26</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E29" s="64"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="64">
+        <v>3029</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>788</v>
+      </c>
+      <c r="C30" s="64">
+        <v>24</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E30" s="64">
+        <v>2</v>
+      </c>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="64">
+        <v>3030</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>789</v>
+      </c>
+      <c r="C31" s="64">
+        <v>18</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E31" s="64">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="64">
+        <v>3031</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="C32" s="64">
+        <v>27</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E32" s="64">
+        <v>3</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="67" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="64">
+        <v>3032</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>791</v>
+      </c>
+      <c r="C33" s="64">
         <v>19</v>
       </c>
-      <c r="D6" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E6" s="72">
+      <c r="D33" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E33" s="64">
+        <v>2</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="67" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="64">
+        <v>3033</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>792</v>
+      </c>
+      <c r="C34" s="64">
+        <v>28</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E34" s="64">
         <v>1</v>
       </c>
-      <c r="G6" s="78"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="72">
-        <v>3006</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>767</v>
-      </c>
-      <c r="C7" s="72">
+      <c r="G34" s="22"/>
+      <c r="H34" s="67" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="64">
+        <v>3034</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>793</v>
+      </c>
+      <c r="C35" s="64">
+        <v>21</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E35" s="64">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="67" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="64">
+        <v>3035</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>794</v>
+      </c>
+      <c r="C36" s="64">
+        <v>22</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E36" s="64"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="64">
+        <v>3036</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="C37" s="64">
+        <v>20</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E37" s="64">
+        <v>2</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="64">
+        <v>3037</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="C38" s="64">
+        <v>23</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E38" s="64">
+        <v>3</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="64">
+        <v>3038</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>797</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E39" s="64">
+        <v>1</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="64">
+        <v>3039</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>798</v>
+      </c>
+      <c r="C40" s="64">
+        <v>21</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E40" s="64">
+        <v>2</v>
+      </c>
+      <c r="H40" s="67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="64">
+        <v>3040</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="C41" s="64">
+        <v>20</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E41" s="64">
+        <v>1</v>
+      </c>
+      <c r="H41" s="67" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="64">
+        <v>3041</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>800</v>
+      </c>
+      <c r="C42" s="64">
+        <v>29</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E42" s="64">
+        <v>3</v>
+      </c>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="64">
+        <v>3042</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>801</v>
+      </c>
+      <c r="C43" s="64">
         <v>24</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E7" s="72">
+      <c r="D43" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E43" s="64">
         <v>2</v>
       </c>
-      <c r="G7" s="77" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="72">
-        <v>3007</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>768</v>
-      </c>
-      <c r="C8" s="72">
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="64">
+        <v>3043</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="C44" s="64">
+        <v>26</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E44" s="64">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="64">
+        <v>3044</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>803</v>
+      </c>
+      <c r="C45" s="64">
+        <v>22</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E45" s="64">
+        <v>3</v>
+      </c>
+      <c r="H45" s="67" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="64">
+        <v>3045</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="C46" s="64">
         <v>20</v>
       </c>
-      <c r="D8" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E8" s="72">
+      <c r="D46" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E46" s="64">
+        <v>1</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="64">
+        <v>3046</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="C47" s="64">
+        <v>19</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E47" s="64">
+        <v>2</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="64">
+        <v>3047</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>806</v>
+      </c>
+      <c r="C48" s="64">
+        <v>27</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E48" s="64"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="67" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="64">
+        <v>3048</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>807</v>
+      </c>
+      <c r="C49" s="64">
+        <v>28</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E49" s="64">
         <v>3</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="75" t="s">
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="64">
+        <v>3049</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="C50" s="64">
+        <v>23</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E50" s="64">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="64">
+        <v>3050</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>809</v>
+      </c>
+      <c r="C51" s="64">
+        <v>21</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E51" s="64">
+        <v>2</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="H52" s="67" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="H53" s="67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="H54" s="67" t="s">
         <v>817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="72">
-        <v>3008</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>769</v>
-      </c>
-      <c r="C9" s="72">
-        <v>23</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="75" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="72">
-        <v>3009</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>770</v>
-      </c>
-      <c r="C10" s="72">
-        <v>20</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E10" s="72">
-        <v>2</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="75" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="72">
-        <v>3010</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>771</v>
-      </c>
-      <c r="C11" s="72">
-        <v>22</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E11" s="72">
-        <v>1</v>
-      </c>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="72">
-        <v>3011</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>772</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E12" s="72">
-        <v>3</v>
-      </c>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="72">
-        <v>3012</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>773</v>
-      </c>
-      <c r="C13" s="72">
-        <v>25</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E13" s="72">
-        <v>1</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="72">
-        <v>3013</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>774</v>
-      </c>
-      <c r="C14" s="72">
-        <v>20</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E14" s="72">
-        <v>2</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="75" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="72">
-        <v>3014</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>775</v>
-      </c>
-      <c r="C15" s="72">
-        <v>28</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E15" s="72">
-        <v>3</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="75" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="72">
-        <v>3015</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>776</v>
-      </c>
-      <c r="C16" s="72">
-        <v>21</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E16" s="72">
-        <v>1</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="75" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="72">
-        <v>3016</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>777</v>
-      </c>
-      <c r="C17" s="72">
-        <v>30</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E17" s="72">
-        <v>2</v>
-      </c>
-      <c r="G17" s="73"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="72">
-        <v>3017</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>778</v>
-      </c>
-      <c r="C18" s="72">
-        <v>22</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E18" s="72">
-        <v>1</v>
-      </c>
-      <c r="G18" s="78"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="72">
-        <v>3018</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>779</v>
-      </c>
-      <c r="C19" s="72">
-        <v>23</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>780</v>
-      </c>
-      <c r="E19" s="72">
-        <v>2</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="72">
-        <v>3019</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>781</v>
-      </c>
-      <c r="C20" s="72">
-        <v>20</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E20" s="72"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="75" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="72">
-        <v>3020</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>782</v>
-      </c>
-      <c r="C21" s="72">
-        <v>19</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E21" s="72">
-        <v>3</v>
-      </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="75" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="72">
-        <v>3021</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>783</v>
-      </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E22" s="72">
-        <v>1</v>
-      </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="75" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="72">
-        <v>3022</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>784</v>
-      </c>
-      <c r="C23" s="72">
-        <v>20</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E23" s="72">
-        <v>2</v>
-      </c>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="72">
-        <v>3023</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>785</v>
-      </c>
-      <c r="C24" s="72">
-        <v>21</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E24" s="72">
-        <v>3</v>
-      </c>
-      <c r="G24" s="78"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="72">
-        <v>3024</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>786</v>
-      </c>
-      <c r="C25" s="72">
-        <v>22</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E25" s="72">
-        <v>1</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="72">
-        <v>3025</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>787</v>
-      </c>
-      <c r="C26" s="72">
-        <v>20</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E26" s="72">
-        <v>2</v>
-      </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="75" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="72">
-        <v>3026</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>788</v>
-      </c>
-      <c r="C27" s="72">
-        <v>23</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E27" s="72">
-        <v>3</v>
-      </c>
-      <c r="G27" s="73"/>
-      <c r="H27" s="75" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="72">
-        <v>3027</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>789</v>
-      </c>
-      <c r="C28" s="72">
-        <v>25</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E28" s="72">
-        <v>1</v>
-      </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="75" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="72">
-        <v>3028</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>790</v>
-      </c>
-      <c r="C29" s="72">
-        <v>26</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E29" s="72"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="72">
-        <v>3029</v>
-      </c>
-      <c r="B30" s="72" t="s">
-        <v>791</v>
-      </c>
-      <c r="C30" s="72">
-        <v>24</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E30" s="72">
-        <v>2</v>
-      </c>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="72">
-        <v>3030</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>792</v>
-      </c>
-      <c r="C31" s="72">
-        <v>18</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E31" s="72">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="72">
-        <v>3031</v>
-      </c>
-      <c r="B32" s="72" t="s">
-        <v>793</v>
-      </c>
-      <c r="C32" s="72">
-        <v>27</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E32" s="72">
-        <v>3</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="75" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="72">
-        <v>3032</v>
-      </c>
-      <c r="B33" s="72" t="s">
-        <v>794</v>
-      </c>
-      <c r="C33" s="72">
-        <v>19</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E33" s="72">
-        <v>2</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="75" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="72">
-        <v>3033</v>
-      </c>
-      <c r="B34" s="72" t="s">
-        <v>795</v>
-      </c>
-      <c r="C34" s="72">
-        <v>28</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E34" s="72">
-        <v>1</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="75" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="72">
-        <v>3034</v>
-      </c>
-      <c r="B35" s="72" t="s">
-        <v>796</v>
-      </c>
-      <c r="C35" s="72">
-        <v>21</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E35" s="72">
-        <v>3</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="75" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="72">
-        <v>3035</v>
-      </c>
-      <c r="B36" s="72" t="s">
-        <v>797</v>
-      </c>
-      <c r="C36" s="72">
-        <v>22</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E36" s="72"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="72">
-        <v>3036</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>798</v>
-      </c>
-      <c r="C37" s="72">
-        <v>20</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E37" s="72">
-        <v>2</v>
-      </c>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="72">
-        <v>3037</v>
-      </c>
-      <c r="B38" s="72" t="s">
-        <v>799</v>
-      </c>
-      <c r="C38" s="72">
-        <v>23</v>
-      </c>
-      <c r="D38" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E38" s="72">
-        <v>3</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="72">
-        <v>3038</v>
-      </c>
-      <c r="B39" s="72" t="s">
-        <v>800</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E39" s="72">
-        <v>1</v>
-      </c>
-      <c r="H39" s="75" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="72">
-        <v>3039</v>
-      </c>
-      <c r="B40" s="72" t="s">
-        <v>801</v>
-      </c>
-      <c r="C40" s="72">
-        <v>21</v>
-      </c>
-      <c r="D40" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E40" s="72">
-        <v>2</v>
-      </c>
-      <c r="H40" s="75" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="72">
-        <v>3040</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>802</v>
-      </c>
-      <c r="C41" s="72">
-        <v>20</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E41" s="72">
-        <v>1</v>
-      </c>
-      <c r="H41" s="75" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="72">
-        <v>3041</v>
-      </c>
-      <c r="B42" s="72" t="s">
-        <v>803</v>
-      </c>
-      <c r="C42" s="72">
-        <v>29</v>
-      </c>
-      <c r="D42" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E42" s="72">
-        <v>3</v>
-      </c>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="72">
-        <v>3042</v>
-      </c>
-      <c r="B43" s="72" t="s">
-        <v>804</v>
-      </c>
-      <c r="C43" s="72">
-        <v>24</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E43" s="72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="72">
-        <v>3043</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>805</v>
-      </c>
-      <c r="C44" s="72">
-        <v>26</v>
-      </c>
-      <c r="D44" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E44" s="72">
-        <v>1</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="72">
-        <v>3044</v>
-      </c>
-      <c r="B45" s="72" t="s">
-        <v>806</v>
-      </c>
-      <c r="C45" s="72">
-        <v>22</v>
-      </c>
-      <c r="D45" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E45" s="72">
-        <v>3</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="72">
-        <v>3045</v>
-      </c>
-      <c r="B46" s="72" t="s">
-        <v>807</v>
-      </c>
-      <c r="C46" s="72">
-        <v>20</v>
-      </c>
-      <c r="D46" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E46" s="72">
-        <v>1</v>
-      </c>
-      <c r="H46" s="75" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="72">
-        <v>3046</v>
-      </c>
-      <c r="B47" s="72" t="s">
-        <v>808</v>
-      </c>
-      <c r="C47" s="72">
-        <v>19</v>
-      </c>
-      <c r="D47" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E47" s="72">
-        <v>2</v>
-      </c>
-      <c r="H47" s="75" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="72">
-        <v>3047</v>
-      </c>
-      <c r="B48" s="72" t="s">
-        <v>809</v>
-      </c>
-      <c r="C48" s="72">
-        <v>27</v>
-      </c>
-      <c r="D48" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E48" s="72"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="75" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="72">
-        <v>3048</v>
-      </c>
-      <c r="B49" s="72" t="s">
-        <v>810</v>
-      </c>
-      <c r="C49" s="72">
-        <v>28</v>
-      </c>
-      <c r="D49" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E49" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="72">
-        <v>3049</v>
-      </c>
-      <c r="B50" s="72" t="s">
-        <v>811</v>
-      </c>
-      <c r="C50" s="72">
-        <v>23</v>
-      </c>
-      <c r="D50" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E50" s="72">
-        <v>1</v>
-      </c>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="72">
-        <v>3050</v>
-      </c>
-      <c r="B51" s="72" t="s">
-        <v>812</v>
-      </c>
-      <c r="C51" s="72">
-        <v>21</v>
-      </c>
-      <c r="D51" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E51" s="72">
-        <v>2</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="H52" s="75" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="H53" s="75" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="H54" s="75" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -10017,28 +10044,28 @@
     </row>
     <row r="56" spans="1:8">
       <c r="G56" s="22" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="G57" s="24"/>
-      <c r="H57" s="75" t="s">
-        <v>828</v>
+      <c r="H57" s="67" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="H58" s="75" t="s">
-        <v>630</v>
+      <c r="H58" s="67" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="H59" s="75" t="s">
-        <v>839</v>
+      <c r="H59" s="67" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="H60" s="75" t="s">
-        <v>815</v>
+      <c r="H60" s="67" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -10046,33 +10073,33 @@
     </row>
     <row r="62" spans="1:8">
       <c r="G62" s="20" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="G63" s="21"/>
-      <c r="H63" s="75" t="s">
-        <v>841</v>
+      <c r="H63" s="67" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="H64" s="75" t="s">
-        <v>630</v>
+      <c r="H64" s="67" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="65" spans="7:8">
-      <c r="H65" s="75" t="s">
-        <v>842</v>
+      <c r="H65" s="67" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="7:8">
-      <c r="H66" s="75" t="s">
-        <v>843</v>
+      <c r="H66" s="67" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="7:8">
-      <c r="H67" s="75" t="s">
-        <v>844</v>
+      <c r="H67" s="67" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="69" spans="7:8">
@@ -10080,33 +10107,33 @@
     </row>
     <row r="70" spans="7:8">
       <c r="G70" s="20" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="7:8">
       <c r="G71" s="21"/>
-      <c r="H71" s="75" t="s">
-        <v>846</v>
+      <c r="H71" s="67" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="72" spans="7:8">
-      <c r="H72" s="75" t="s">
-        <v>640</v>
+      <c r="H72" s="67" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="73" spans="7:8">
-      <c r="H73" s="75" t="s">
-        <v>847</v>
+      <c r="H73" s="67" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="74" spans="7:8">
-      <c r="H74" s="75" t="s">
-        <v>848</v>
+      <c r="H74" s="67" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="75" spans="7:8">
-      <c r="H75" s="75" t="s">
-        <v>849</v>
+      <c r="H75" s="67" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="77" spans="7:8">
@@ -10114,28 +10141,28 @@
     </row>
     <row r="78" spans="7:8">
       <c r="G78" s="20" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="79" spans="7:8">
       <c r="G79" s="21"/>
-      <c r="H79" s="75" t="s">
-        <v>851</v>
+      <c r="H79" s="67" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="80" spans="7:8">
-      <c r="H80" s="75" t="s">
-        <v>630</v>
+      <c r="H80" s="67" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="7:8">
-      <c r="H81" s="75" t="s">
-        <v>852</v>
+      <c r="H81" s="67" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="7:8">
-      <c r="H82" s="75" t="s">
-        <v>818</v>
+      <c r="H82" s="67" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="84" spans="7:8">
@@ -10143,33 +10170,33 @@
     </row>
     <row r="85" spans="7:8">
       <c r="G85" s="20" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="86" spans="7:8">
       <c r="G86" s="21"/>
-      <c r="H86" s="75" t="s">
-        <v>854</v>
+      <c r="H86" s="67" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="87" spans="7:8">
-      <c r="H87" s="75" t="s">
-        <v>640</v>
+      <c r="H87" s="67" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="7:8">
-      <c r="H88" s="75" t="s">
-        <v>847</v>
+      <c r="H88" s="67" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="89" spans="7:8">
-      <c r="H89" s="75" t="s">
-        <v>855</v>
+      <c r="H89" s="67" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="90" spans="7:8">
-      <c r="H90" s="75" t="s">
-        <v>856</v>
+      <c r="H90" s="67" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="92" spans="7:8">
@@ -10177,33 +10204,33 @@
     </row>
     <row r="93" spans="7:8">
       <c r="G93" s="20" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="94" spans="7:8">
       <c r="G94" s="21"/>
-      <c r="H94" s="75" t="s">
-        <v>858</v>
+      <c r="H94" s="67" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="95" spans="7:8">
-      <c r="H95" s="75" t="s">
-        <v>640</v>
+      <c r="H95" s="67" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="96" spans="7:8">
-      <c r="H96" s="75" t="s">
-        <v>847</v>
+      <c r="H96" s="67" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="97" spans="7:8">
-      <c r="H97" s="75" t="s">
-        <v>848</v>
+      <c r="H97" s="67" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="98" spans="7:8">
-      <c r="H98" s="75" t="s">
-        <v>859</v>
+      <c r="H98" s="67" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="100" spans="7:8">
@@ -10211,38 +10238,38 @@
     </row>
     <row r="101" spans="7:8">
       <c r="G101" s="20" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="102" spans="7:8">
       <c r="G102" s="21"/>
-      <c r="H102" s="75" t="s">
-        <v>851</v>
+      <c r="H102" s="67" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="103" spans="7:8">
-      <c r="H103" s="75" t="s">
-        <v>630</v>
+      <c r="H103" s="67" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="104" spans="7:8">
-      <c r="H104" s="75" t="s">
-        <v>842</v>
+      <c r="H104" s="67" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="105" spans="7:8">
-      <c r="H105" s="75" t="s">
-        <v>861</v>
+      <c r="H105" s="67" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="106" spans="7:8">
-      <c r="H106" s="75" t="s">
-        <v>862</v>
+      <c r="H106" s="67" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="7:8">
-      <c r="H107" s="75" t="s">
-        <v>863</v>
+      <c r="H107" s="67" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="109" spans="7:8">
@@ -10250,28 +10277,28 @@
     </row>
     <row r="110" spans="7:8">
       <c r="G110" s="20" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="111" spans="7:8">
       <c r="G111" s="21"/>
-      <c r="H111" s="75" t="s">
-        <v>820</v>
+      <c r="H111" s="67" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="112" spans="7:8">
-      <c r="H112" s="75" t="s">
-        <v>640</v>
+      <c r="H112" s="67" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="113" spans="7:8">
-      <c r="H113" s="75" t="s">
-        <v>865</v>
+      <c r="H113" s="67" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="114" spans="7:8">
-      <c r="H114" s="75" t="s">
-        <v>821</v>
+      <c r="H114" s="67" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="116" spans="7:8">
@@ -10279,28 +10306,28 @@
     </row>
     <row r="117" spans="7:8">
       <c r="G117" s="20" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="118" spans="7:8">
       <c r="G118" s="21"/>
-      <c r="H118" s="75" t="s">
-        <v>867</v>
+      <c r="H118" s="67" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="119" spans="7:8">
-      <c r="H119" s="75" t="s">
-        <v>640</v>
+      <c r="H119" s="67" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="120" spans="7:8">
-      <c r="H120" s="75" t="s">
-        <v>847</v>
+      <c r="H120" s="67" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="121" spans="7:8">
-      <c r="H121" s="75" t="s">
-        <v>832</v>
+      <c r="H121" s="67" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="123" spans="7:8">
@@ -10308,28 +10335,28 @@
     </row>
     <row r="124" spans="7:8">
       <c r="G124" s="20" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="125" spans="7:8">
       <c r="G125" s="21"/>
-      <c r="H125" s="75" t="s">
-        <v>828</v>
+      <c r="H125" s="67" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="126" spans="7:8">
-      <c r="H126" s="75" t="s">
-        <v>630</v>
+      <c r="H126" s="67" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="7:8">
-      <c r="H127" s="75" t="s">
-        <v>869</v>
+      <c r="H127" s="67" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="128" spans="7:8">
-      <c r="H128" s="75" t="s">
-        <v>815</v>
+      <c r="H128" s="67" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="130" spans="7:8">
@@ -10337,33 +10364,33 @@
     </row>
     <row r="131" spans="7:8">
       <c r="G131" s="20" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="132" spans="7:8">
       <c r="G132" s="21"/>
-      <c r="H132" s="75" t="s">
-        <v>871</v>
+      <c r="H132" s="67" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="133" spans="7:8">
-      <c r="H133" s="75" t="s">
-        <v>640</v>
+      <c r="H133" s="67" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="134" spans="7:8">
-      <c r="H134" s="75" t="s">
-        <v>847</v>
+      <c r="H134" s="67" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="135" spans="7:8">
-      <c r="H135" s="75" t="s">
-        <v>848</v>
+      <c r="H135" s="67" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="136" spans="7:8">
-      <c r="H136" s="75" t="s">
-        <v>872</v>
+      <c r="H136" s="67" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="149" spans="7:7">
@@ -10400,6 +10427,7 @@
       <c r="G159" s="24"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E51" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Beginner/Slides/Lec_5_6.xlsx
+++ b/Beginner/Slides/Lec_5_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABF119-DB0A-4542-893C-057688CA830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAB699-D250-3343-A5F2-98A9683EAF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="WHERE" sheetId="9" r:id="rId5"/>
     <sheet name="Date" sheetId="12" r:id="rId6"/>
     <sheet name="Group" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Group!$A$1:$E$51</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="980">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2893,6 +2894,321 @@
   </si>
   <si>
     <t>SELECT department_id, COUNT(student_id) AS student_count</t>
+  </si>
+  <si>
+    <t>1–10. 条件与逻辑运算（AND, OR, NOT, BETWEEN, IN, IS NULL）</t>
+  </si>
+  <si>
+    <t>查询GPA在3.0到4.0之间且年龄小于22岁的学生。</t>
+  </si>
+  <si>
+    <t>Find students whose GPA is between 3.0 and 4.0 and age is less than 22.</t>
+  </si>
+  <si>
+    <t>查找不是“男”性别，且不在1、2、3系的学生信息。</t>
+  </si>
+  <si>
+    <t>Find students who are not male and not in departments 1, 2, or 3.</t>
+  </si>
+  <si>
+    <t>查询选修了课程ID为1或3，但成绩低于60的学生ID。</t>
+  </si>
+  <si>
+    <t>Find student IDs who enrolled in course 1 or 3 and scored below 60.</t>
+  </si>
+  <si>
+    <t>查询出生年份不是2002或2003的学生。</t>
+  </si>
+  <si>
+    <t>Find students whose birth year is not 2002 or 2003.</t>
+  </si>
+  <si>
+    <t>查找教授中，工资在9000到11000之间，且不是2016年或2020年入职的。</t>
+  </si>
+  <si>
+    <t>Find professors whose salary is between 9000 and 11000 and were not hired in 2016 or 2020.</t>
+  </si>
+  <si>
+    <t>查询没有GPA记录（NULL）的学生。</t>
+  </si>
+  <si>
+    <t>Find students with NULL GPA.</t>
+  </si>
+  <si>
+    <t>查询所有课程中不是必修（is_mandatory=0）且课程学分不是2.0或3.0的。</t>
+  </si>
+  <si>
+    <t>Find courses that are not mandatory and whose credit is not 2.0 or 3.0.</t>
+  </si>
+  <si>
+    <t>查找学生中入学日期早于2020年，且GPA不在3.5到4.0之间的记录。</t>
+  </si>
+  <si>
+    <t>Find students enrolled before 2020 whose GPA is not between 3.5 and 4.0.</t>
+  </si>
+  <si>
+    <t>查询名字包含“小”但不包含“明”的学生。</t>
+  </si>
+  <si>
+    <t>Find students whose names contain ‘小’ but not ‘明’.</t>
+  </si>
+  <si>
+    <t>查询成绩为NULL或成绩大于85的选课记录。</t>
+  </si>
+  <si>
+    <t>Find enrollment records where score is NULL or greater than 85.</t>
+  </si>
+  <si>
+    <t>11–20. 数值函数（ROUND, ABS, CEIL, FLOOR, POWER, SQRT）</t>
+  </si>
+  <si>
+    <t>查询每位教师的工资四舍五入后的值。</t>
+  </si>
+  <si>
+    <t>Show the rounded salary of each teacher.</t>
+  </si>
+  <si>
+    <t>显示所有课程的学分平方值。</t>
+  </si>
+  <si>
+    <t>Display square of credit for each course.</t>
+  </si>
+  <si>
+    <t>显示所有课程学分的平方根，保留两位小数。</t>
+  </si>
+  <si>
+    <t>Show the square root of each course’s credit (rounded to 2 decimals).</t>
+  </si>
+  <si>
+    <t>计算所有学生GPA的绝对值。</t>
+  </si>
+  <si>
+    <t>Calculate the absolute value of each student’s GPA.</t>
+  </si>
+  <si>
+    <t>取所有教师工资的上整和下整值。</t>
+  </si>
+  <si>
+    <t>Get the CEIL and FLOOR values of each teacher’s salary.</t>
+  </si>
+  <si>
+    <t>查询选课成绩与平均成绩的差值的绝对值。</t>
+  </si>
+  <si>
+    <t>Show ABS(score - average score) for each enrollment.</t>
+  </si>
+  <si>
+    <t>显示每门课程学分的立方值。</t>
+  </si>
+  <si>
+    <t>Show the cube (POWER(credit, 3)) of each course’s credit.</t>
+  </si>
+  <si>
+    <t>查询分数四舍五入后大于90的选课记录。</t>
+  </si>
+  <si>
+    <t>Find enrollments where rounded score &gt; 90.</t>
+  </si>
+  <si>
+    <t>显示所有学生GPA的平方根，忽略GPA为NULL的。</t>
+  </si>
+  <si>
+    <t>Show SQRT(GPA) for students with non-NULL GPA.</t>
+  </si>
+  <si>
+    <t>找出分数小于平均值平方根的选课记录。</t>
+  </si>
+  <si>
+    <t>Find enrollments where score &lt; SQRT(AVG(score)).</t>
+  </si>
+  <si>
+    <t>21–30. 字符串处理函数（LENGTH, UPPER, LOWER, SUBSTR, TRIM, REPLACE, INSTR）</t>
+  </si>
+  <si>
+    <t>显示所有学生名字的大写和小写形式。</t>
+  </si>
+  <si>
+    <t>Show UPPER and LOWER names of all students.</t>
+  </si>
+  <si>
+    <t>查询所有课程名长度大于6的课程。</t>
+  </si>
+  <si>
+    <t>Find courses where LENGTH(course_name) &gt; 6.</t>
+  </si>
+  <si>
+    <t>查询包含“编程”关键字的课程名。</t>
+  </si>
+  <si>
+    <t>Find courses where INSTR(course_name, ‘编程’) &gt; 0.</t>
+  </si>
+  <si>
+    <t>显示学生名字的前三个字符。</t>
+  </si>
+  <si>
+    <t>Show the first 3 characters of each student’s name.</t>
+  </si>
+  <si>
+    <t>去除教师名字两端空格后再显示。</t>
+  </si>
+  <si>
+    <t>Show TRIM(name) for all teachers.</t>
+  </si>
+  <si>
+    <t>将课程名中的“编程”替换为“程序设计”。</t>
+  </si>
+  <si>
+    <t>Replace ‘编程’ with ‘程序设计’ in course names.</t>
+  </si>
+  <si>
+    <t>查询名字中包含“红”的学生，其名字长度不小于3。</t>
+  </si>
+  <si>
+    <t>Find students whose name contains ‘红’ and LENGTH(name) ≥ 3.</t>
+  </si>
+  <si>
+    <t>查询长度不等于2的教师职称。</t>
+  </si>
+  <si>
+    <t>Find distinct titles where LENGTH(title) ≠ 2.</t>
+  </si>
+  <si>
+    <t>查询所有课程名中，包含“与”字的位置。</t>
+  </si>
+  <si>
+    <t>Show position of ‘与’ in each course name using INSTR.</t>
+  </si>
+  <si>
+    <t>显示学生名字最后两个字符。</t>
+  </si>
+  <si>
+    <t>Show SUBSTR(name, -2, 2) for each student.</t>
+  </si>
+  <si>
+    <t>31–40. 日期与时间函数（DATE, DATETIME, STRFTIME）</t>
+  </si>
+  <si>
+    <t>查询当前日期是星期几（数字形式0=周日）。</t>
+  </si>
+  <si>
+    <t>What day of the week is today? Use STRFTIME(’%w’, ‘now’).</t>
+  </si>
+  <si>
+    <t>查询今天是一年中的第几天？</t>
+  </si>
+  <si>
+    <t>What day of the year is today? Use STRFTIME(’%j’, ‘now’).</t>
+  </si>
+  <si>
+    <t>显示每位教师入职的年份和月份。</t>
+  </si>
+  <si>
+    <t>Show hire year and month for each teacher.</t>
+  </si>
+  <si>
+    <t>查询入职年份为2018或之后的教师。</t>
+  </si>
+  <si>
+    <t>Find teachers hired in or after 2018.</t>
+  </si>
+  <si>
+    <t>查询所有学生出生月份是2月或3月的。</t>
+  </si>
+  <si>
+    <t>Find students whose birth month is February or March.</t>
+  </si>
+  <si>
+    <t>显示每位学生的出生日期到现在的天数。</t>
+  </si>
+  <si>
+    <t>Show the number of days since each student’s birth date.</t>
+  </si>
+  <si>
+    <t>查询2025年1月1日向前推一个月是哪天？</t>
+  </si>
+  <si>
+    <t>What date is one month before Jan 1, 2025?</t>
+  </si>
+  <si>
+    <t>查询三天前的日期。</t>
+  </si>
+  <si>
+    <t>What was the date 3 days ago?</t>
+  </si>
+  <si>
+    <t>查询当前时间加3小时减15分钟。</t>
+  </si>
+  <si>
+    <t>Show DATETIME(‘now’, ‘+3 hours’, ‘-15 minutes’).</t>
+  </si>
+  <si>
+    <t>查询2025年1月1日加1年减1月的日期。</t>
+  </si>
+  <si>
+    <t>What date is DATE(‘2025-01-01’, ‘+1 year’, ‘-1 month’)?</t>
+  </si>
+  <si>
+    <t>41–50. 综合题（多函数+条件）</t>
+  </si>
+  <si>
+    <t>查询课程名长度大于8且学分的平方大于10的课程。</t>
+  </si>
+  <si>
+    <t>Find courses where LENGTH(course_name) &gt; 8 and POWER(credit, 2) &gt; 10.</t>
+  </si>
+  <si>
+    <t>查询学生中名字长度等于2，GPA四舍五入后为4的记录。</t>
+  </si>
+  <si>
+    <t>Find students whose name length = 2 and rounded GPA = 4.</t>
+  </si>
+  <si>
+    <t>查询教师中，名字中包含“陈”或“赵”，且工资上整后大于9000的。</t>
+  </si>
+  <si>
+    <t>Find teachers whose name includes ‘陈’ or ‘赵’ and CEIL(salary) &gt; 9000.</t>
+  </si>
+  <si>
+    <t>查询学生入学日期早于2021年，且其出生年为偶数。</t>
+  </si>
+  <si>
+    <t>Find students enrolled before 2021 whose birth year is even.</t>
+  </si>
+  <si>
+    <t>查询学生名字包含“刚”或“洁”，且年龄不在20到22之间的记录。</t>
+  </si>
+  <si>
+    <t>Find students whose names include ‘刚’ or ‘洁’ and age NOT BETWEEN 20 AND 22.</t>
+  </si>
+  <si>
+    <t>查询选课成绩大于平均成绩，且其课程为必修课的学生ID。</t>
+  </si>
+  <si>
+    <t>Find student IDs with score &gt; average and enrolled in mandatory courses.</t>
+  </si>
+  <si>
+    <t>查询教师名字中不含“李”，且工资不为NULL的记录。</t>
+  </si>
+  <si>
+    <t>Find teachers whose name does not include ‘李’ and salary IS NOT NULL.</t>
+  </si>
+  <si>
+    <t>查询课程中名字包含“与”且课程时间早于12:00的。</t>
+  </si>
+  <si>
+    <t>Find courses that include ‘与’ in the name and are scheduled before 12:00.</t>
+  </si>
+  <si>
+    <t>查询所有学生的年龄与GPA乘积，结果保留两位小数。</t>
+  </si>
+  <si>
+    <t>Show ROUND(age * GPA, 2) for all students.</t>
+  </si>
+  <si>
+    <t>查询所有学生入学到今天的年数，保留两位小数。</t>
+  </si>
+  <si>
+    <t>Show how many years since each student enrolled (rounded to 2 decimals).</t>
   </si>
 </sst>
 </file>
@@ -3430,6 +3746,10 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3454,11 +3774,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4576,7 +4892,7 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="86" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A56" zoomScale="86" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -4783,7 +5099,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="75" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4797,7 +5113,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="71"/>
+      <c r="D29" s="75"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -4809,7 +5125,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="71"/>
+      <c r="D30" s="75"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -4821,7 +5137,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="71"/>
+      <c r="D31" s="75"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -4833,7 +5149,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="71"/>
+      <c r="D32" s="75"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -4845,7 +5161,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="71"/>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -4857,7 +5173,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -4869,7 +5185,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="71"/>
+      <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -4881,7 +5197,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="71"/>
+      <c r="D36" s="75"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -4893,7 +5209,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="71"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -4905,7 +5221,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="71"/>
+      <c r="D38" s="75"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -4917,7 +5233,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="71"/>
+      <c r="D39" s="75"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -4929,7 +5245,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="71"/>
+      <c r="D40" s="75"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -4941,7 +5257,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="75"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -4953,7 +5269,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="75"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -4965,7 +5281,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="71"/>
+      <c r="D43" s="75"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -4977,7 +5293,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="75"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
@@ -5045,12 +5361,12 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="71" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="71" t="s">
         <v>869</v>
       </c>
       <c r="B63" s="42"/>
@@ -5347,10 +5663,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="72"/>
+      <c r="D46" s="76"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5436,7 +5752,9 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -5568,7 +5886,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="80" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -5582,7 +5900,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="77"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="58" t="s">
         <v>483</v>
       </c>
@@ -5594,7 +5912,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="80" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5608,7 +5926,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="77"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -5620,7 +5938,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="80" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5634,7 +5952,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="77"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -5674,7 +5992,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="80" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5688,7 +6006,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="78"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5700,7 +6018,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="77"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -5740,7 +6058,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="77" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -5754,7 +6072,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="74"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -5766,7 +6084,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="74"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="26" t="s">
         <v>602</v>
       </c>
@@ -5778,7 +6096,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="74"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -5790,7 +6108,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="74"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -5802,7 +6120,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="75"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -5814,7 +6132,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="77" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -5828,7 +6146,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="74"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -5840,7 +6158,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="74"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="59" t="s">
         <v>604</v>
       </c>
@@ -5855,7 +6173,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="74"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="26" t="s">
         <v>603</v>
       </c>
@@ -5867,7 +6185,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="74"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -5882,7 +6200,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="75"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -5895,10 +6213,10 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="26" t="s">
         <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -5912,8 +6230,8 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="74"/>
-      <c r="C48" s="81" t="s">
+      <c r="B48" s="78"/>
+      <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -5925,8 +6243,8 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="74"/>
-      <c r="C49" s="81" t="s">
+      <c r="B49" s="78"/>
+      <c r="C49" s="26" t="s">
         <v>275</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -5940,8 +6258,8 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="74"/>
-      <c r="C50" s="81" t="s">
+      <c r="B50" s="78"/>
+      <c r="C50" s="26" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -5953,8 +6271,8 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="74"/>
-      <c r="C51" s="81" t="s">
+      <c r="B51" s="78"/>
+      <c r="C51" s="26" t="s">
         <v>281</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -5968,8 +6286,8 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="75"/>
-      <c r="C52" s="81" t="s">
+      <c r="B52" s="79"/>
+      <c r="C52" s="26" t="s">
         <v>284</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -5980,10 +6298,10 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="72" t="s">
         <v>872</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -5994,8 +6312,8 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="74"/>
-      <c r="C54" s="80" t="s">
+      <c r="B54" s="78"/>
+      <c r="C54" s="72" t="s">
         <v>290</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -6006,8 +6324,8 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="74"/>
-      <c r="C55" s="80" t="s">
+      <c r="B55" s="78"/>
+      <c r="C55" s="72" t="s">
         <v>293</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -6018,8 +6336,8 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="74"/>
-      <c r="C56" s="80" t="s">
+      <c r="B56" s="78"/>
+      <c r="C56" s="72" t="s">
         <v>296</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -6030,8 +6348,8 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="75"/>
-      <c r="C57" s="80" t="s">
+      <c r="B57" s="79"/>
+      <c r="C57" s="72" t="s">
         <v>873</v>
       </c>
       <c r="D57" s="26" t="s">
@@ -6042,7 +6360,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="77" t="s">
         <v>301</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -6056,7 +6374,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="74"/>
+      <c r="B59" s="78"/>
       <c r="C59" s="26" t="s">
         <v>305</v>
       </c>
@@ -6068,7 +6386,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="74"/>
+      <c r="B60" s="78"/>
       <c r="C60" s="26" t="s">
         <v>308</v>
       </c>
@@ -6080,7 +6398,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="75"/>
+      <c r="B61" s="79"/>
       <c r="C61" s="26" t="s">
         <v>311</v>
       </c>
@@ -6809,7 +7127,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BA09B4-4C11-4647-8D7F-110373603660}">
-  <dimension ref="A1:AH176"/>
+  <dimension ref="A1:AQ217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6819,7 +7137,7 @@
     <col min="7" max="7" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="17">
+    <row r="1" spans="1:43" ht="19">
       <c r="A1" t="s">
         <v>403</v>
       </c>
@@ -6838,8 +7156,11 @@
       <c r="AH1" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="17">
+      <c r="AQ1" s="83" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="17">
       <c r="A2" t="s">
         <v>404</v>
       </c>
@@ -6853,7 +7174,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="18">
+    <row r="3" spans="1:43" ht="18">
       <c r="A3" t="s">
         <v>405</v>
       </c>
@@ -6869,8 +7190,11 @@
       <c r="AH3" s="15" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" ht="17">
+      <c r="AQ3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="17">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -6888,7 +7212,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="18">
+    <row r="5" spans="1:43" ht="18">
       <c r="A5" t="s">
         <v>406</v>
       </c>
@@ -6907,14 +7231,17 @@
       <c r="AH5" s="15" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="17">
+      <c r="AQ5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="17">
       <c r="B6" s="15"/>
       <c r="H6" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="18">
+    <row r="7" spans="1:43" ht="18">
       <c r="B7" s="15"/>
       <c r="G7" s="42" t="s">
         <v>496</v>
@@ -6931,8 +7258,11 @@
       <c r="AH7" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" ht="17">
+      <c r="AQ7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="17">
       <c r="A8" t="s">
         <v>407</v>
       </c>
@@ -6946,7 +7276,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="18">
+    <row r="9" spans="1:43" ht="18">
       <c r="A9" t="s">
         <v>408</v>
       </c>
@@ -6957,8 +7287,11 @@
       <c r="AH9" s="15" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" ht="17">
+      <c r="AQ9" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="17">
       <c r="A10" t="s">
         <v>409</v>
       </c>
@@ -6975,7 +7308,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="18">
+    <row r="11" spans="1:43" ht="18">
       <c r="A11" t="s">
         <v>410</v>
       </c>
@@ -6995,8 +7328,11 @@
       <c r="AH11" s="15" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" ht="17">
+      <c r="AQ11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="17">
       <c r="A12" t="s">
         <v>411</v>
       </c>
@@ -7008,7 +7344,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="18">
+    <row r="13" spans="1:43" ht="18">
       <c r="A13" t="s">
         <v>412</v>
       </c>
@@ -7027,8 +7363,11 @@
       <c r="AH13" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AQ13" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="B14" s="1"/>
       <c r="G14" s="42" t="s">
         <v>502</v>
@@ -7040,7 +7379,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="18">
+    <row r="15" spans="1:43" ht="18">
       <c r="H15" s="15" t="s">
         <v>503</v>
       </c>
@@ -7053,8 +7392,11 @@
       <c r="AH15" s="15" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" ht="17">
+      <c r="AQ15" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="17">
       <c r="A16" t="s">
         <v>413</v>
       </c>
@@ -7071,7 +7413,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="18">
+    <row r="17" spans="1:43" ht="18">
       <c r="A17" t="s">
         <v>410</v>
       </c>
@@ -7090,13 +7432,16 @@
       <c r="AH17" s="15" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="AQ17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="17">
+    <row r="19" spans="1:43" ht="17">
       <c r="A19" t="s">
         <v>412</v>
       </c>
@@ -7115,8 +7460,11 @@
       <c r="AH19" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" ht="17">
+      <c r="AQ19" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" ht="17">
       <c r="B20" s="1"/>
       <c r="H20" s="15" t="s">
         <v>507</v>
@@ -7128,7 +7476,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="20">
+    <row r="21" spans="1:43" ht="20">
       <c r="G21" s="42" t="s">
         <v>508</v>
       </c>
@@ -7141,8 +7489,11 @@
       <c r="AH21" s="15" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" ht="17">
+      <c r="AQ21" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" ht="17">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -7160,7 +7511,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="17">
+    <row r="23" spans="1:43" ht="17">
       <c r="A23" t="s">
         <v>415</v>
       </c>
@@ -7177,8 +7528,11 @@
       <c r="AH23" s="15" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" ht="17">
+      <c r="AQ23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" ht="17">
       <c r="H24" s="15" t="s">
         <v>511</v>
       </c>
@@ -7186,7 +7540,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
         <v>416</v>
       </c>
@@ -7203,8 +7557,11 @@
       <c r="AH25" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" ht="17">
+      <c r="AQ25" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" ht="17">
       <c r="A26" t="s">
         <v>410</v>
       </c>
@@ -7218,7 +7575,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="17">
+    <row r="27" spans="1:43" ht="17">
       <c r="A27" t="s">
         <v>411</v>
       </c>
@@ -7229,8 +7586,11 @@
       <c r="AH27" s="15" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" ht="17">
+      <c r="AQ27" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" ht="17">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -7248,7 +7608,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="17">
+    <row r="29" spans="1:43" ht="17">
       <c r="H29" s="15" t="s">
         <v>514</v>
       </c>
@@ -7258,8 +7618,11 @@
       <c r="AH29" s="15" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" ht="17">
+      <c r="AQ29" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" ht="17">
       <c r="A30" t="s">
         <v>417</v>
       </c>
@@ -7274,7 +7637,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -7290,8 +7653,11 @@
       <c r="AH31" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" ht="17">
+      <c r="AQ31" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" ht="17">
       <c r="A32" t="s">
         <v>411</v>
       </c>
@@ -7306,7 +7672,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="17">
+    <row r="33" spans="1:43" ht="17">
       <c r="A33" t="s">
         <v>412</v>
       </c>
@@ -7320,8 +7686,11 @@
       <c r="AH33" s="15" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" ht="17">
+      <c r="AQ33" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" ht="17">
       <c r="G34" s="42" t="s">
         <v>522</v>
       </c>
@@ -7335,7 +7704,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="17">
+    <row r="35" spans="1:43" ht="17">
       <c r="A35" t="s">
         <v>418</v>
       </c>
@@ -7349,8 +7718,11 @@
       <c r="AH35" s="15" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" ht="17">
+      <c r="AQ35" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" ht="17">
       <c r="A36" t="s">
         <v>410</v>
       </c>
@@ -7364,7 +7736,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>411</v>
       </c>
@@ -7377,8 +7749,11 @@
       <c r="AH37" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="38" spans="1:34">
+      <c r="AQ37" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
         <v>412</v>
       </c>
@@ -7389,7 +7764,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="17">
+    <row r="39" spans="1:43" ht="17">
       <c r="H39" t="s">
         <v>523</v>
       </c>
@@ -7402,8 +7777,11 @@
       <c r="AH39" s="15" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="40" spans="1:34" ht="17">
+      <c r="AQ39" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" ht="17">
       <c r="H40" t="s">
         <v>524</v>
       </c>
@@ -7417,7 +7795,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
         <v>419</v>
       </c>
@@ -7427,8 +7805,11 @@
       <c r="AC41" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="42" spans="1:34">
+      <c r="AQ41" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
         <v>420</v>
       </c>
@@ -7445,7 +7826,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
         <v>421</v>
       </c>
@@ -7459,7 +7840,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="17">
+    <row r="44" spans="1:43" ht="17">
       <c r="A44" t="s">
         <v>410</v>
       </c>
@@ -7473,7 +7854,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="17">
+    <row r="45" spans="1:43" ht="19">
       <c r="A45" t="s">
         <v>411</v>
       </c>
@@ -7490,8 +7871,11 @@
       <c r="AH45" s="15" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" ht="17">
+      <c r="AQ45" s="83" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" ht="17">
       <c r="A46" t="s">
         <v>412</v>
       </c>
@@ -7505,7 +7889,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="17">
+    <row r="47" spans="1:43" ht="17">
       <c r="B47" s="15"/>
       <c r="H47" t="s">
         <v>531</v>
@@ -7516,8 +7900,11 @@
       <c r="AC47" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="48" spans="1:34" ht="17">
+      <c r="AQ47" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" ht="17">
       <c r="B48" s="15"/>
       <c r="W48" t="s">
         <v>596</v>
@@ -7529,7 +7916,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:43">
       <c r="A49" t="s">
         <v>422</v>
       </c>
@@ -7542,8 +7929,11 @@
       <c r="AC49" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="50" spans="1:34" ht="17">
+      <c r="AQ49" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" ht="17">
       <c r="A50" t="s">
         <v>410</v>
       </c>
@@ -7558,7 +7948,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="17">
+    <row r="51" spans="1:43" ht="17">
       <c r="A51" t="s">
         <v>411</v>
       </c>
@@ -7571,8 +7961,11 @@
       <c r="AH51" s="15" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="52" spans="1:34" ht="17">
+      <c r="AQ51" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" ht="17">
       <c r="A52" t="s">
         <v>412</v>
       </c>
@@ -7587,7 +7980,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="17">
+    <row r="53" spans="1:43" ht="17">
       <c r="B53" s="15"/>
       <c r="H53" t="s">
         <v>535</v>
@@ -7601,8 +7994,11 @@
       <c r="AH53" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="54" spans="1:34">
+      <c r="AQ53" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
         <v>423</v>
       </c>
@@ -7613,7 +8009,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="17">
+    <row r="55" spans="1:43" ht="17">
       <c r="A55" t="s">
         <v>424</v>
       </c>
@@ -7627,8 +8023,11 @@
       <c r="AH55" s="15" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="56" spans="1:34" ht="17">
+      <c r="AQ55" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" ht="17">
       <c r="A56" t="s">
         <v>425</v>
       </c>
@@ -7642,7 +8041,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="17">
+    <row r="57" spans="1:43" ht="17">
       <c r="A57" t="s">
         <v>426</v>
       </c>
@@ -7659,8 +8058,11 @@
       <c r="AH57" s="15" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="58" spans="1:34" ht="17">
+      <c r="AQ57" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" ht="17">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -7675,7 +8077,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:43">
       <c r="A59" t="s">
         <v>411</v>
       </c>
@@ -7691,8 +8093,11 @@
       <c r="AH59" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="60" spans="1:34">
+      <c r="AQ59" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7704,15 +8109,18 @@
         <v>576</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="17">
+    <row r="61" spans="1:43" ht="17">
       <c r="AC61" t="s">
         <v>598</v>
       </c>
       <c r="AH61" s="15" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="62" spans="1:34" ht="17">
+      <c r="AQ61" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" ht="17">
       <c r="A62" t="s">
         <v>427</v>
       </c>
@@ -7726,7 +8134,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="17">
+    <row r="63" spans="1:43" ht="17">
       <c r="A63" t="s">
         <v>410</v>
       </c>
@@ -7739,8 +8147,11 @@
       <c r="AH63" s="15" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="64" spans="1:34">
+      <c r="AQ63" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43">
       <c r="A64" t="s">
         <v>411</v>
       </c>
@@ -7751,7 +8162,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:43">
       <c r="A65" t="s">
         <v>412</v>
       </c>
@@ -7761,8 +8172,11 @@
       <c r="AH65" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="66" spans="1:34">
+      <c r="AQ65" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43">
       <c r="H66" t="s">
         <v>542</v>
       </c>
@@ -7770,7 +8184,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="17">
+    <row r="67" spans="1:43" ht="17">
       <c r="A67" t="s">
         <v>428</v>
       </c>
@@ -7783,8 +8197,11 @@
       <c r="AH67" s="15" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="68" spans="1:34" ht="17">
+      <c r="AQ67" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" ht="17">
       <c r="A68" t="s">
         <v>429</v>
       </c>
@@ -7795,7 +8212,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="17">
+    <row r="69" spans="1:43" ht="17">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -7808,8 +8225,11 @@
       <c r="AH69" s="15" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="70" spans="1:34">
+      <c r="AQ69" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43">
       <c r="A70" t="s">
         <v>431</v>
       </c>
@@ -7817,7 +8237,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:43">
       <c r="A71" t="s">
         <v>410</v>
       </c>
@@ -7827,8 +8247,11 @@
       <c r="AH71" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="72" spans="1:34">
+      <c r="AQ71" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43">
       <c r="A72" t="s">
         <v>411</v>
       </c>
@@ -7839,7 +8262,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="17">
+    <row r="73" spans="1:43" ht="17">
       <c r="A73" t="s">
         <v>412</v>
       </c>
@@ -7850,8 +8273,11 @@
       <c r="AH73" s="15" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="74" spans="1:34" ht="17">
+      <c r="AQ73" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" ht="17">
       <c r="H74" t="s">
         <v>547</v>
       </c>
@@ -7862,7 +8288,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="17">
+    <row r="75" spans="1:43" ht="17">
       <c r="B75" s="15"/>
       <c r="AC75" t="s">
         <v>614</v>
@@ -7870,8 +8296,11 @@
       <c r="AH75" s="15" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="76" spans="1:34" ht="17">
+      <c r="AQ75" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" ht="17">
       <c r="A76" t="s">
         <v>432</v>
       </c>
@@ -7880,7 +8309,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="17">
+    <row r="77" spans="1:43" ht="17">
       <c r="A77" t="s">
         <v>433</v>
       </c>
@@ -7891,14 +8320,17 @@
       <c r="AH77" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="78" spans="1:34" ht="17">
+      <c r="AQ77" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" ht="17">
       <c r="A78" t="s">
         <v>434</v>
       </c>
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="1:34" ht="17">
+    <row r="79" spans="1:43" ht="17">
       <c r="A79" t="s">
         <v>410</v>
       </c>
@@ -7909,8 +8341,11 @@
       <c r="AH79" s="15" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="80" spans="1:34" ht="17">
+      <c r="AQ79" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43" ht="17">
       <c r="A80" t="s">
         <v>411</v>
       </c>
@@ -7922,7 +8357,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="17">
+    <row r="81" spans="1:43" ht="17">
       <c r="A81" t="s">
         <v>412</v>
       </c>
@@ -7932,14 +8367,17 @@
       <c r="AH81" s="15" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="82" spans="1:34">
+      <c r="AQ81" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43">
       <c r="B82" s="1"/>
       <c r="AC82" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:43">
       <c r="A83" t="s">
         <v>435</v>
       </c>
@@ -7949,8 +8387,11 @@
       <c r="AH83" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="84" spans="1:34">
+      <c r="AQ83" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43">
       <c r="A84" t="s">
         <v>410</v>
       </c>
@@ -7958,7 +8399,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="17">
+    <row r="85" spans="1:43" ht="17">
       <c r="A85" t="s">
         <v>411</v>
       </c>
@@ -7968,8 +8409,11 @@
       <c r="AH85" s="15" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="86" spans="1:34" ht="17">
+      <c r="AQ85" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43" ht="17">
       <c r="A86" t="s">
         <v>412</v>
       </c>
@@ -7977,7 +8421,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="17">
+    <row r="87" spans="1:43" ht="17">
       <c r="AC87" t="s">
         <v>620</v>
       </c>
@@ -7985,7 +8429,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:43">
       <c r="A88" t="s">
         <v>436</v>
       </c>
@@ -7993,7 +8437,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:43" ht="19">
       <c r="A89" t="s">
         <v>410</v>
       </c>
@@ -8003,13 +8447,16 @@
       <c r="AH89" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="90" spans="1:34">
+      <c r="AQ89" s="83" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43">
       <c r="A90" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="17">
+    <row r="91" spans="1:43" ht="17">
       <c r="A91" t="s">
         <v>412</v>
       </c>
@@ -8019,8 +8466,11 @@
       <c r="AH91" s="15" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="92" spans="1:34" ht="17">
+      <c r="AQ91" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" ht="17">
       <c r="AC92" t="s">
         <v>623</v>
       </c>
@@ -8028,7 +8478,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="17">
+    <row r="93" spans="1:43" ht="17">
       <c r="A93" t="s">
         <v>437</v>
       </c>
@@ -8038,13 +8488,16 @@
       <c r="AH93" s="15" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="94" spans="1:34">
+      <c r="AQ93" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43">
       <c r="A94" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:43">
       <c r="A95" t="s">
         <v>439</v>
       </c>
@@ -8054,8 +8507,11 @@
       <c r="AH95" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="96" spans="1:34">
+      <c r="AQ95" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43">
       <c r="A96" t="s">
         <v>410</v>
       </c>
@@ -8063,7 +8519,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="97" spans="1:34" ht="17">
+    <row r="97" spans="1:43" ht="17">
       <c r="A97" t="s">
         <v>411</v>
       </c>
@@ -8073,8 +8529,11 @@
       <c r="AH97" s="15" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="98" spans="1:34" ht="17">
+      <c r="AQ97" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43" ht="17">
       <c r="A98" t="s">
         <v>412</v>
       </c>
@@ -8082,7 +8541,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="99" spans="1:43">
+      <c r="AQ99" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43">
       <c r="A100" t="s">
         <v>440</v>
       </c>
@@ -8090,12 +8554,15 @@
         <v>675</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:43">
       <c r="A101" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="102" spans="1:34" ht="17">
+      <c r="AQ101" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" ht="17">
       <c r="A102" t="s">
         <v>411</v>
       </c>
@@ -8103,33 +8570,47 @@
         <v>676</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="17">
+    <row r="103" spans="1:43" ht="17">
       <c r="A103" t="s">
         <v>412</v>
       </c>
       <c r="AH103" s="15" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="105" spans="1:34">
+      <c r="AQ103" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43">
       <c r="AH105" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="107" spans="1:34" ht="17">
+      <c r="AQ105" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" ht="17">
       <c r="A107" t="s">
         <v>441</v>
       </c>
       <c r="AH107" s="15" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="108" spans="1:34" ht="17">
+      <c r="AQ107" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43" ht="17">
       <c r="AH108" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="109" spans="1:43">
+      <c r="AQ109" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43">
       <c r="A110" t="s">
         <v>442</v>
       </c>
@@ -8137,56 +8618,73 @@
         <v>679</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="17">
+    <row r="111" spans="1:43">
+      <c r="AQ111" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43" ht="17">
       <c r="AH112" s="15" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="17">
+    <row r="113" spans="1:43" ht="17">
       <c r="A113" t="s">
         <v>443</v>
       </c>
       <c r="AH113" s="15" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="114" spans="1:34">
+      <c r="AQ113" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="114" spans="1:43">
       <c r="A114" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:43">
       <c r="A115" t="s">
         <v>445</v>
       </c>
       <c r="AH115" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="116" spans="1:34">
+      <c r="AQ115" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="116" spans="1:43">
       <c r="A116" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="17">
+    <row r="117" spans="1:43" ht="17">
       <c r="A117" t="s">
         <v>447</v>
       </c>
       <c r="AH117" s="15" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="118" spans="1:34" ht="17">
+      <c r="AQ117" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="118" spans="1:43" ht="17">
       <c r="AH118" s="15" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:43">
       <c r="A119" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="120" spans="1:34">
+      <c r="AQ119" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="120" spans="1:43">
       <c r="A120" t="s">
         <v>449</v>
       </c>
@@ -8194,7 +8692,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="122" spans="1:34" ht="17">
+    <row r="121" spans="1:43">
+      <c r="AQ121" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="122" spans="1:43" ht="17">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -8202,33 +8705,42 @@
         <v>684</v>
       </c>
     </row>
-    <row r="123" spans="1:34" ht="17">
+    <row r="123" spans="1:43" ht="17">
       <c r="A123" t="s">
         <v>451</v>
       </c>
       <c r="AH123" s="15" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="125" spans="1:34">
+      <c r="AQ123" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="125" spans="1:43">
       <c r="A125" t="s">
         <v>452</v>
       </c>
       <c r="AH125" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="126" spans="1:34">
+      <c r="AQ125" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="126" spans="1:43">
       <c r="A126" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="17">
+    <row r="127" spans="1:43" ht="17">
       <c r="AH127" s="15" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="128" spans="1:34" ht="17">
+      <c r="AQ127" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="128" spans="1:43" ht="17">
       <c r="A128" t="s">
         <v>453</v>
       </c>
@@ -8236,12 +8748,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:43">
       <c r="A129" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="130" spans="1:34">
+      <c r="AQ129" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="130" spans="1:43">
       <c r="A130" t="s">
         <v>455</v>
       </c>
@@ -8249,25 +8764,28 @@
         <v>687</v>
       </c>
     </row>
-    <row r="131" spans="1:34">
+    <row r="131" spans="1:43">
       <c r="A131" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="17">
+    <row r="132" spans="1:43" ht="17">
       <c r="AH132" s="15" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="133" spans="1:34" ht="17">
+    <row r="133" spans="1:43" ht="19">
       <c r="A133" t="s">
         <v>456</v>
       </c>
       <c r="AH133" s="15" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="134" spans="1:34" ht="17">
+      <c r="AQ133" s="83" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="134" spans="1:43" ht="17">
       <c r="A134" t="s">
         <v>457</v>
       </c>
@@ -8275,33 +8793,42 @@
         <v>688</v>
       </c>
     </row>
-    <row r="135" spans="1:34" ht="17">
+    <row r="135" spans="1:43" ht="17">
       <c r="AH135" s="15" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="136" spans="1:34">
+      <c r="AQ135" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="136" spans="1:43">
       <c r="A136" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:34">
+    <row r="137" spans="1:43">
       <c r="A137" t="s">
         <v>447</v>
       </c>
       <c r="AH137" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="139" spans="1:34" ht="17">
+      <c r="AQ137" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="139" spans="1:43" ht="17">
       <c r="A139" t="s">
         <v>459</v>
       </c>
       <c r="AH139" s="15" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="140" spans="1:34" ht="17">
+      <c r="AQ139" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="140" spans="1:43" ht="17">
       <c r="A140" t="s">
         <v>460</v>
       </c>
@@ -8309,12 +8836,15 @@
         <v>628</v>
       </c>
     </row>
-    <row r="141" spans="1:34" ht="17">
+    <row r="141" spans="1:43" ht="17">
       <c r="AH141" s="15" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="142" spans="1:34" ht="17">
+      <c r="AQ141" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="142" spans="1:43" ht="17">
       <c r="A142" t="s">
         <v>461</v>
       </c>
@@ -8322,134 +8852,293 @@
         <v>693</v>
       </c>
     </row>
-    <row r="143" spans="1:34">
+    <row r="143" spans="1:43">
       <c r="A143" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="AQ143" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="145" spans="1:43">
       <c r="A145" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="AQ145" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="147" spans="1:43">
       <c r="A147" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="AQ147" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="148" spans="1:43">
       <c r="A148" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="149" spans="1:43">
+      <c r="AQ149" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="150" spans="1:43">
       <c r="A150" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:43">
       <c r="A151" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="AQ151" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="153" spans="1:43">
       <c r="A153" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="AQ153" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="154" spans="1:43">
       <c r="A154" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:43">
       <c r="A155" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="AQ155" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="156" spans="1:43">
       <c r="A156" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="157" spans="1:43">
+      <c r="AQ157" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="158" spans="1:43">
       <c r="A158" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:43">
       <c r="A159" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="AQ159" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="160" spans="1:43">
       <c r="A160" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:43">
       <c r="A161" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="AQ161" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="163" spans="1:43">
       <c r="A163" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="AQ163" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="164" spans="1:43">
       <c r="A164" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:43">
       <c r="A165" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="AQ165" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="166" spans="1:43">
       <c r="A166" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="167" spans="1:43">
+      <c r="AQ167" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="168" spans="1:43">
       <c r="A168" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:43">
       <c r="A169" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="AQ169" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="170" spans="1:43">
       <c r="A170" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:43">
       <c r="A171" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="AQ171" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="173" spans="1:43">
       <c r="A173" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="AQ173" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:43">
       <c r="A174" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:43">
       <c r="A175" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:43">
       <c r="A176" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="43:43" ht="19">
+      <c r="AQ177" s="83" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="179" spans="43:43">
+      <c r="AQ179" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="181" spans="43:43">
+      <c r="AQ181" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="184" spans="43:43">
+      <c r="AQ184" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="186" spans="43:43">
+      <c r="AQ186" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="187" spans="43:43">
+      <c r="AQ187" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="189" spans="43:43">
+      <c r="AQ189" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="191" spans="43:43">
+      <c r="AQ191" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="193" spans="43:43">
+      <c r="AQ193" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="195" spans="43:43">
+      <c r="AQ195" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="197" spans="43:43">
+      <c r="AQ197" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="199" spans="43:43">
+      <c r="AQ199" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="201" spans="43:43">
+      <c r="AQ201" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="203" spans="43:43">
+      <c r="AQ203" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="205" spans="43:43">
+      <c r="AQ205" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="207" spans="43:43">
+      <c r="AQ207" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="209" spans="43:43">
+      <c r="AQ209" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="211" spans="43:43">
+      <c r="AQ211" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="213" spans="43:43">
+      <c r="AQ213" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="215" spans="43:43">
+      <c r="AQ215" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="217" spans="43:43">
+      <c r="AQ217" t="s">
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -8464,8 +9153,8 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31" defaultRowHeight="16"/>
@@ -9056,6 +9745,9 @@
       <c r="E1" s="68" t="s">
         <v>757</v>
       </c>
+      <c r="F1" s="72" t="s">
+        <v>872</v>
+      </c>
       <c r="G1" s="69" t="s">
         <v>810</v>
       </c>
@@ -9076,8 +9768,11 @@
       <c r="E2" s="64">
         <v>1</v>
       </c>
+      <c r="F2" s="72" t="s">
+        <v>290</v>
+      </c>
       <c r="G2" s="70"/>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="73" t="s">
         <v>874</v>
       </c>
     </row>
@@ -9097,8 +9792,11 @@
       <c r="E3" s="64">
         <v>2</v>
       </c>
+      <c r="F3" s="72" t="s">
+        <v>293</v>
+      </c>
       <c r="G3" s="65"/>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="73" t="s">
         <v>628</v>
       </c>
     </row>
@@ -9114,8 +9812,11 @@
         <v>761</v>
       </c>
       <c r="E4" s="64"/>
+      <c r="F4" s="72" t="s">
+        <v>296</v>
+      </c>
       <c r="G4" s="65"/>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="73" t="s">
         <v>811</v>
       </c>
     </row>
@@ -9133,8 +9834,11 @@
       <c r="E5" s="64">
         <v>3</v>
       </c>
+      <c r="F5" s="72" t="s">
+        <v>873</v>
+      </c>
       <c r="G5" s="65"/>
-      <c r="H5" s="83"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="64">
@@ -9153,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="70"/>
-      <c r="H6" s="83"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="64">
@@ -10430,4 +11134,817 @@
   <autoFilter ref="A1:E51" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05B7C55-8519-1744-A6F4-6D9438227DA6}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24">
+      <c r="A1" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24">
+      <c r="A2" s="64">
+        <v>3001</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2" s="64">
+        <v>20</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E2" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24">
+      <c r="A3" s="64">
+        <v>3005</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>763</v>
+      </c>
+      <c r="C3" s="64">
+        <v>19</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E3" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24">
+      <c r="A4" s="64">
+        <v>3010</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>768</v>
+      </c>
+      <c r="C4" s="64">
+        <v>22</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E4" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24">
+      <c r="A5" s="64">
+        <v>3012</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>770</v>
+      </c>
+      <c r="C5" s="64">
+        <v>25</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E5" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24">
+      <c r="A6" s="64">
+        <v>3015</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" s="64">
+        <v>21</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24">
+      <c r="A7" s="64">
+        <v>3017</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>775</v>
+      </c>
+      <c r="C7" s="64">
+        <v>22</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E7" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24">
+      <c r="A8" s="64">
+        <v>3021</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>780</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E8" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24">
+      <c r="A9" s="64">
+        <v>3024</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="C9" s="64">
+        <v>22</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E9" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24">
+      <c r="A10" s="64">
+        <v>3027</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>786</v>
+      </c>
+      <c r="C10" s="64">
+        <v>25</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E10" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24">
+      <c r="A11" s="64">
+        <v>3030</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>789</v>
+      </c>
+      <c r="C11" s="64">
+        <v>18</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E11" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24">
+      <c r="A12" s="64">
+        <v>3033</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>792</v>
+      </c>
+      <c r="C12" s="64">
+        <v>28</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E12" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24">
+      <c r="A13" s="64">
+        <v>3038</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E13" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24">
+      <c r="A14" s="64">
+        <v>3040</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="C14" s="64">
+        <v>20</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E14" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24">
+      <c r="A15" s="64">
+        <v>3043</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="C15" s="64">
+        <v>26</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24">
+      <c r="A16" s="64">
+        <v>3045</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="C16" s="64">
+        <v>20</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24">
+      <c r="A17" s="64">
+        <v>3049</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="C17" s="64">
+        <v>23</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E17" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24">
+      <c r="A19" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>754</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>756</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24">
+      <c r="A20" s="64">
+        <v>3002</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>760</v>
+      </c>
+      <c r="C20" s="64">
+        <v>21</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E20" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24">
+      <c r="A21" s="64">
+        <v>3006</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="C21" s="64">
+        <v>24</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E21" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24">
+      <c r="A22" s="64">
+        <v>3009</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>767</v>
+      </c>
+      <c r="C22" s="64">
+        <v>20</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E22" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24">
+      <c r="A23" s="64">
+        <v>3013</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="C23" s="64">
+        <v>20</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E23" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24">
+      <c r="A24" s="64">
+        <v>3016</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>774</v>
+      </c>
+      <c r="C24" s="64">
+        <v>30</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E24" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24">
+      <c r="A25" s="64">
+        <v>3018</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="C25" s="64">
+        <v>23</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>777</v>
+      </c>
+      <c r="E25" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24">
+      <c r="A26" s="64">
+        <v>3022</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" s="64">
+        <v>20</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E26" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24">
+      <c r="A27" s="64">
+        <v>3025</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" s="64">
+        <v>20</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E27" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24">
+      <c r="A28" s="64">
+        <v>3029</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>788</v>
+      </c>
+      <c r="C28" s="64">
+        <v>24</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E28" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24">
+      <c r="A29" s="64">
+        <v>3032</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>791</v>
+      </c>
+      <c r="C29" s="64">
+        <v>19</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E29" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24">
+      <c r="A30" s="64">
+        <v>3036</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="C30" s="64">
+        <v>20</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E30" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24">
+      <c r="A31" s="64">
+        <v>3039</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>798</v>
+      </c>
+      <c r="C31" s="64">
+        <v>21</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E31" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24">
+      <c r="A32" s="64">
+        <v>3042</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>801</v>
+      </c>
+      <c r="C32" s="64">
+        <v>24</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E32" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24">
+      <c r="A33" s="64">
+        <v>3046</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="C33" s="64">
+        <v>19</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E33" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24">
+      <c r="A34" s="64">
+        <v>3050</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>809</v>
+      </c>
+      <c r="C34" s="64">
+        <v>21</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E34" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24">
+      <c r="A36" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>754</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>756</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24">
+      <c r="A37" s="64">
+        <v>3004</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64">
+        <v>22</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E37" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24">
+      <c r="A38" s="64">
+        <v>3007</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>765</v>
+      </c>
+      <c r="C38" s="64">
+        <v>20</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E38" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24">
+      <c r="A39" s="64">
+        <v>3011</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>769</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E39" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24">
+      <c r="A40" s="64">
+        <v>3014</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="C40" s="64">
+        <v>28</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E40" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24">
+      <c r="A41" s="64">
+        <v>3020</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>779</v>
+      </c>
+      <c r="C41" s="64">
+        <v>19</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E41" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24">
+      <c r="A42" s="64">
+        <v>3023</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>782</v>
+      </c>
+      <c r="C42" s="64">
+        <v>21</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E42" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24">
+      <c r="A43" s="64">
+        <v>3026</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="C43" s="64">
+        <v>23</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E43" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24">
+      <c r="A44" s="64">
+        <v>3031</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="C44" s="64">
+        <v>27</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E44" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24">
+      <c r="A45" s="64">
+        <v>3034</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>793</v>
+      </c>
+      <c r="C45" s="64">
+        <v>21</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E45" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24">
+      <c r="A46" s="64">
+        <v>3037</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="C46" s="64">
+        <v>23</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E46" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24">
+      <c r="A47" s="64">
+        <v>3041</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>800</v>
+      </c>
+      <c r="C47" s="64">
+        <v>29</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E47" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24">
+      <c r="A48" s="64">
+        <v>3044</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>803</v>
+      </c>
+      <c r="C48" s="64">
+        <v>22</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E48" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24">
+      <c r="A49" s="64">
+        <v>3048</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>807</v>
+      </c>
+      <c r="C49" s="64">
+        <v>28</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E49" s="64">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Beginner/Slides/Lec_5_6.xlsx
+++ b/Beginner/Slides/Lec_5_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAB699-D250-3343-A5F2-98A9683EAF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B78BCE-0DD2-7A4B-9343-E12316A9AA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="5" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="WHERE" sheetId="9" r:id="rId5"/>
     <sheet name="Date" sheetId="12" r:id="rId6"/>
     <sheet name="Group" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Group!$A$1:$E$51</definedName>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="980">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2443,9 +2442,6 @@
     <t>🧮 日期计算（偏移）</t>
   </si>
   <si>
-    <t>DATE('now', '+1 day')</t>
-  </si>
-  <si>
     <t>明天</t>
   </si>
   <si>
@@ -3209,13 +3205,16 @@
   </si>
   <si>
     <t>Show how many years since each student enrolled (rounded to 2 decimals).</t>
+  </si>
+  <si>
+    <t>DATE(birthday, '+1 day')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3518,6 +3517,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3630,7 +3636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3729,7 +3735,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3750,6 +3755,8 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3774,7 +3781,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4181,6 +4191,22 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> birth year = 2020</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4199,14 +4225,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>SELECT name, age</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> -- age = 0</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4357,8 +4375,25 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> , </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>STRFTIME('%m', DATE('now')) , STRFTIME('%m', DATE('now')) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4462,72 +4497,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>= '07';</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> 取余数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> 7 % 4 =</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> 3</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -5099,7 +5068,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="76" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5113,7 +5082,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="76"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -5125,7 +5094,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="76"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -5137,7 +5106,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="76"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -5149,7 +5118,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="76"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -5161,7 +5130,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -5173,7 +5142,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="76"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -5185,7 +5154,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="76"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -5197,7 +5166,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="76"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -5209,7 +5178,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="76"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -5221,7 +5190,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="76"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -5233,7 +5202,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="76"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -5245,7 +5214,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="75"/>
+      <c r="D40" s="76"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -5257,7 +5226,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="76"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -5269,7 +5238,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="76"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -5281,7 +5250,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="75"/>
+      <c r="D43" s="76"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -5293,11 +5262,11 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="75"/>
+      <c r="D44" s="76"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>91</v>
@@ -5321,7 +5290,7 @@
     <row r="57" spans="1:5" ht="25">
       <c r="A57" s="14"/>
       <c r="C57" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25">
@@ -5330,12 +5299,12 @@
       </c>
       <c r="B58" s="42"/>
       <c r="E58" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25">
       <c r="A59" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B59" s="42"/>
       <c r="E59" s="33" t="s">
@@ -5344,7 +5313,7 @@
     </row>
     <row r="60" spans="1:5" ht="25">
       <c r="A60" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B60" s="42"/>
       <c r="E60" s="33" t="s">
@@ -5353,7 +5322,7 @@
     </row>
     <row r="61" spans="1:5" ht="25">
       <c r="A61" s="24" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B61" s="42"/>
       <c r="E61" s="33" t="s">
@@ -5361,27 +5330,27 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="71" t="s">
-        <v>871</v>
+      <c r="A62" s="70" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="71" t="s">
-        <v>869</v>
+      <c r="A63" s="70" t="s">
+        <v>868</v>
       </c>
       <c r="B63" s="42"/>
     </row>
     <row r="64" spans="1:5" ht="23">
       <c r="A64" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25">
       <c r="A65" s="24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E65" s="34"/>
     </row>
@@ -5663,10 +5632,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="76"/>
+      <c r="D46" s="77"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5752,8 +5721,8 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5886,7 +5855,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="81" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -5900,7 +5869,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="58" t="s">
         <v>483</v>
       </c>
@@ -5912,7 +5881,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="81" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5926,7 +5895,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="81"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -5938,7 +5907,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="81" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5952,7 +5921,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="81"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -5992,7 +5961,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="81" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -6006,7 +5975,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="82"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -6018,7 +5987,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="81"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -6058,7 +6027,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="78" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -6072,7 +6041,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="78"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -6084,7 +6053,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="78"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="26" t="s">
         <v>602</v>
       </c>
@@ -6096,7 +6065,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="78"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -6108,7 +6077,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="78"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -6120,7 +6089,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="79"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -6132,7 +6101,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="78" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -6146,7 +6115,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="78"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -6158,7 +6127,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="78"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="59" t="s">
         <v>604</v>
       </c>
@@ -6173,7 +6142,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="78"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="26" t="s">
         <v>603</v>
       </c>
@@ -6185,7 +6154,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="78"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -6200,7 +6169,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="79"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -6213,10 +6182,10 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="75" t="s">
         <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -6230,8 +6199,8 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="78"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="79"/>
+      <c r="C48" s="75" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -6243,8 +6212,8 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="78"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="79"/>
+      <c r="C49" s="75" t="s">
         <v>275</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -6258,8 +6227,8 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="78"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="79"/>
+      <c r="C50" s="75" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -6271,8 +6240,8 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="78"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="79"/>
+      <c r="C51" s="75" t="s">
         <v>281</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -6286,8 +6255,8 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="79"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="80"/>
+      <c r="C52" s="75" t="s">
         <v>284</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -6298,11 +6267,11 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="C53" s="72" t="s">
-        <v>872</v>
+      <c r="C53" s="26" t="s">
+        <v>871</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>288</v>
@@ -6312,8 +6281,8 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="78"/>
-      <c r="C54" s="72" t="s">
+      <c r="B54" s="79"/>
+      <c r="C54" s="26" t="s">
         <v>290</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -6324,8 +6293,8 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="78"/>
-      <c r="C55" s="72" t="s">
+      <c r="B55" s="79"/>
+      <c r="C55" s="26" t="s">
         <v>293</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -6336,8 +6305,8 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="78"/>
-      <c r="C56" s="72" t="s">
+      <c r="B56" s="79"/>
+      <c r="C56" s="26" t="s">
         <v>296</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -6348,9 +6317,9 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="79"/>
-      <c r="C57" s="72" t="s">
-        <v>873</v>
+      <c r="B57" s="80"/>
+      <c r="C57" s="26" t="s">
+        <v>872</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>299</v>
@@ -6360,7 +6329,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="78" t="s">
         <v>301</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -6374,7 +6343,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="78"/>
+      <c r="B59" s="79"/>
       <c r="C59" s="26" t="s">
         <v>305</v>
       </c>
@@ -6386,7 +6355,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="78"/>
+      <c r="B60" s="79"/>
       <c r="C60" s="26" t="s">
         <v>308</v>
       </c>
@@ -6398,7 +6367,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="79"/>
+      <c r="B61" s="80"/>
       <c r="C61" s="26" t="s">
         <v>311</v>
       </c>
@@ -7156,8 +7125,8 @@
       <c r="AH1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AQ1" s="83" t="s">
-        <v>875</v>
+      <c r="AQ1" s="74" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="17">
@@ -7191,7 +7160,7 @@
         <v>627</v>
       </c>
       <c r="AQ3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="17">
@@ -7232,7 +7201,7 @@
         <v>629</v>
       </c>
       <c r="AQ5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="17">
@@ -7259,7 +7228,7 @@
         <v>630</v>
       </c>
       <c r="AQ7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="17">
@@ -7288,7 +7257,7 @@
         <v>631</v>
       </c>
       <c r="AQ9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="17">
@@ -7329,7 +7298,7 @@
         <v>632</v>
       </c>
       <c r="AQ11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="17">
@@ -7364,7 +7333,7 @@
         <v>633</v>
       </c>
       <c r="AQ13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -7393,7 +7362,7 @@
         <v>634</v>
       </c>
       <c r="AQ15" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="17">
@@ -7433,7 +7402,7 @@
         <v>635</v>
       </c>
       <c r="AQ17" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -7461,7 +7430,7 @@
         <v>636</v>
       </c>
       <c r="AQ19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="17">
@@ -7490,7 +7459,7 @@
         <v>637</v>
       </c>
       <c r="AQ21" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="17">
@@ -7529,7 +7498,7 @@
         <v>639</v>
       </c>
       <c r="AQ23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="17">
@@ -7558,7 +7527,7 @@
         <v>640</v>
       </c>
       <c r="AQ25" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="17">
@@ -7587,7 +7556,7 @@
         <v>641</v>
       </c>
       <c r="AQ27" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="17">
@@ -7619,7 +7588,7 @@
         <v>642</v>
       </c>
       <c r="AQ29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="17">
@@ -7654,7 +7623,7 @@
         <v>643</v>
       </c>
       <c r="AQ31" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="17">
@@ -7687,7 +7656,7 @@
         <v>644</v>
       </c>
       <c r="AQ33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="34" spans="1:43" ht="17">
@@ -7719,7 +7688,7 @@
         <v>645</v>
       </c>
       <c r="AQ35" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="17">
@@ -7750,7 +7719,7 @@
         <v>646</v>
       </c>
       <c r="AQ37" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -7778,7 +7747,7 @@
         <v>647</v>
       </c>
       <c r="AQ39" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="40" spans="1:43" ht="17">
@@ -7806,7 +7775,7 @@
         <v>585</v>
       </c>
       <c r="AQ41" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -7871,8 +7840,8 @@
       <c r="AH45" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="AQ45" s="83" t="s">
-        <v>896</v>
+      <c r="AQ45" s="74" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="46" spans="1:43" ht="17">
@@ -7901,7 +7870,7 @@
         <v>589</v>
       </c>
       <c r="AQ47" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="48" spans="1:43" ht="17">
@@ -7930,7 +7899,7 @@
         <v>591</v>
       </c>
       <c r="AQ49" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="50" spans="1:43" ht="17">
@@ -7962,7 +7931,7 @@
         <v>447</v>
       </c>
       <c r="AQ51" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="52" spans="1:43" ht="17">
@@ -7995,7 +7964,7 @@
         <v>653</v>
       </c>
       <c r="AQ53" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -8024,7 +7993,7 @@
         <v>654</v>
       </c>
       <c r="AQ55" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="17">
@@ -8059,7 +8028,7 @@
         <v>655</v>
       </c>
       <c r="AQ57" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" spans="1:43" ht="17">
@@ -8094,7 +8063,7 @@
         <v>656</v>
       </c>
       <c r="AQ59" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -8117,7 +8086,7 @@
         <v>634</v>
       </c>
       <c r="AQ61" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="62" spans="1:43" ht="17">
@@ -8148,7 +8117,7 @@
         <v>657</v>
       </c>
       <c r="AQ63" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="64" spans="1:43">
@@ -8173,7 +8142,7 @@
         <v>658</v>
       </c>
       <c r="AQ65" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -8198,7 +8167,7 @@
         <v>659</v>
       </c>
       <c r="AQ67" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="68" spans="1:43" ht="17">
@@ -8226,7 +8195,7 @@
         <v>660</v>
       </c>
       <c r="AQ69" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="70" spans="1:43">
@@ -8248,7 +8217,7 @@
         <v>661</v>
       </c>
       <c r="AQ71" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="72" spans="1:43">
@@ -8274,7 +8243,7 @@
         <v>662</v>
       </c>
       <c r="AQ73" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:43" ht="17">
@@ -8297,7 +8266,7 @@
         <v>663</v>
       </c>
       <c r="AQ75" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="76" spans="1:43" ht="17">
@@ -8321,7 +8290,7 @@
         <v>664</v>
       </c>
       <c r="AQ77" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:43" ht="17">
@@ -8342,7 +8311,7 @@
         <v>665</v>
       </c>
       <c r="AQ79" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="80" spans="1:43" ht="17">
@@ -8368,7 +8337,7 @@
         <v>666</v>
       </c>
       <c r="AQ81" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="82" spans="1:43">
@@ -8388,7 +8357,7 @@
         <v>667</v>
       </c>
       <c r="AQ83" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="84" spans="1:43">
@@ -8410,7 +8379,7 @@
         <v>631</v>
       </c>
       <c r="AQ85" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="86" spans="1:43" ht="17">
@@ -8447,8 +8416,8 @@
       <c r="AH89" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="AQ89" s="83" t="s">
-        <v>917</v>
+      <c r="AQ89" s="74" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="90" spans="1:43">
@@ -8467,7 +8436,7 @@
         <v>670</v>
       </c>
       <c r="AQ91" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="92" spans="1:43" ht="17">
@@ -8489,7 +8458,7 @@
         <v>672</v>
       </c>
       <c r="AQ93" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="94" spans="1:43">
@@ -8508,7 +8477,7 @@
         <v>673</v>
       </c>
       <c r="AQ95" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="96" spans="1:43">
@@ -8530,7 +8499,7 @@
         <v>674</v>
       </c>
       <c r="AQ97" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="98" spans="1:43" ht="17">
@@ -8543,7 +8512,7 @@
     </row>
     <row r="99" spans="1:43">
       <c r="AQ99" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="100" spans="1:43">
@@ -8559,7 +8528,7 @@
         <v>410</v>
       </c>
       <c r="AQ101" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="102" spans="1:43" ht="17">
@@ -8578,7 +8547,7 @@
         <v>571</v>
       </c>
       <c r="AQ103" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="105" spans="1:43">
@@ -8586,7 +8555,7 @@
         <v>677</v>
       </c>
       <c r="AQ105" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="107" spans="1:43" ht="17">
@@ -8597,7 +8566,7 @@
         <v>678</v>
       </c>
       <c r="AQ107" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="108" spans="1:43" ht="17">
@@ -8607,7 +8576,7 @@
     </row>
     <row r="109" spans="1:43">
       <c r="AQ109" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="110" spans="1:43">
@@ -8620,7 +8589,7 @@
     </row>
     <row r="111" spans="1:43">
       <c r="AQ111" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="112" spans="1:43" ht="17">
@@ -8636,7 +8605,7 @@
         <v>447</v>
       </c>
       <c r="AQ113" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="114" spans="1:43">
@@ -8652,7 +8621,7 @@
         <v>681</v>
       </c>
       <c r="AQ115" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="116" spans="1:43">
@@ -8668,7 +8637,7 @@
         <v>682</v>
       </c>
       <c r="AQ117" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="118" spans="1:43" ht="17">
@@ -8681,7 +8650,7 @@
         <v>448</v>
       </c>
       <c r="AQ119" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="120" spans="1:43">
@@ -8694,7 +8663,7 @@
     </row>
     <row r="121" spans="1:43">
       <c r="AQ121" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="122" spans="1:43" ht="17">
@@ -8713,7 +8682,7 @@
         <v>447</v>
       </c>
       <c r="AQ123" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="125" spans="1:43">
@@ -8724,7 +8693,7 @@
         <v>685</v>
       </c>
       <c r="AQ125" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="126" spans="1:43">
@@ -8737,7 +8706,7 @@
         <v>686</v>
       </c>
       <c r="AQ127" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="128" spans="1:43" ht="17">
@@ -8753,7 +8722,7 @@
         <v>454</v>
       </c>
       <c r="AQ129" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="130" spans="1:43">
@@ -8781,8 +8750,8 @@
       <c r="AH133" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="AQ133" s="83" t="s">
-        <v>938</v>
+      <c r="AQ133" s="74" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="134" spans="1:43" ht="17">
@@ -8798,7 +8767,7 @@
         <v>689</v>
       </c>
       <c r="AQ135" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="136" spans="1:43">
@@ -8814,7 +8783,7 @@
         <v>690</v>
       </c>
       <c r="AQ137" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="139" spans="1:43" ht="17">
@@ -8825,7 +8794,7 @@
         <v>691</v>
       </c>
       <c r="AQ139" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="140" spans="1:43" ht="17">
@@ -8841,7 +8810,7 @@
         <v>692</v>
       </c>
       <c r="AQ141" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="142" spans="1:43" ht="17">
@@ -8857,7 +8826,7 @@
         <v>447</v>
       </c>
       <c r="AQ143" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="145" spans="1:43">
@@ -8865,7 +8834,7 @@
         <v>462</v>
       </c>
       <c r="AQ145" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="147" spans="1:43">
@@ -8873,7 +8842,7 @@
         <v>463</v>
       </c>
       <c r="AQ147" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="148" spans="1:43">
@@ -8883,7 +8852,7 @@
     </row>
     <row r="149" spans="1:43">
       <c r="AQ149" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="150" spans="1:43">
@@ -8896,7 +8865,7 @@
         <v>447</v>
       </c>
       <c r="AQ151" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="153" spans="1:43">
@@ -8904,7 +8873,7 @@
         <v>466</v>
       </c>
       <c r="AQ153" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="154" spans="1:43">
@@ -8917,7 +8886,7 @@
         <v>468</v>
       </c>
       <c r="AQ155" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="156" spans="1:43">
@@ -8927,7 +8896,7 @@
     </row>
     <row r="157" spans="1:43">
       <c r="AQ157" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="158" spans="1:43">
@@ -8940,7 +8909,7 @@
         <v>470</v>
       </c>
       <c r="AQ159" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="160" spans="1:43">
@@ -8953,7 +8922,7 @@
         <v>447</v>
       </c>
       <c r="AQ161" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="163" spans="1:43">
@@ -8961,7 +8930,7 @@
         <v>472</v>
       </c>
       <c r="AQ163" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="164" spans="1:43">
@@ -8974,7 +8943,7 @@
         <v>474</v>
       </c>
       <c r="AQ165" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="166" spans="1:43">
@@ -8984,7 +8953,7 @@
     </row>
     <row r="167" spans="1:43">
       <c r="AQ167" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="168" spans="1:43">
@@ -8997,7 +8966,7 @@
         <v>476</v>
       </c>
       <c r="AQ169" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="170" spans="1:43">
@@ -9010,7 +8979,7 @@
         <v>447</v>
       </c>
       <c r="AQ171" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="173" spans="1:43">
@@ -9018,7 +8987,7 @@
         <v>478</v>
       </c>
       <c r="AQ173" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="174" spans="1:43">
@@ -9037,108 +9006,108 @@
       </c>
     </row>
     <row r="177" spans="43:43" ht="19">
-      <c r="AQ177" s="83" t="s">
-        <v>959</v>
+      <c r="AQ177" s="74" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -9153,9 +9122,7 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31" defaultRowHeight="16"/>
   <cols>
@@ -9194,7 +9161,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="84" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -9205,7 +9172,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="84" t="s">
         <v>278</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -9216,7 +9183,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="84" t="s">
         <v>281</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -9239,7 +9206,7 @@
     </row>
     <row r="11" spans="1:5" ht="20">
       <c r="A11" s="57" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22">
@@ -9300,9 +9267,9 @@
     </row>
     <row r="17" spans="1:5" ht="22">
       <c r="B17" s="52" t="s">
-        <v>741</v>
-      </c>
-      <c r="C17" s="62" t="s">
+        <v>740</v>
+      </c>
+      <c r="C17" s="85" t="s">
         <v>706</v>
       </c>
       <c r="D17" s="52">
@@ -9313,10 +9280,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="22">
-      <c r="B18" s="62" t="s">
-        <v>739</v>
-      </c>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>708</v>
       </c>
       <c r="D18" s="52">
@@ -9328,9 +9295,9 @@
     </row>
     <row r="19" spans="1:5" ht="22">
       <c r="B19" s="52" t="s">
-        <v>742</v>
-      </c>
-      <c r="C19" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="C19" s="61" t="s">
         <v>710</v>
       </c>
       <c r="D19" s="52">
@@ -9342,9 +9309,9 @@
     </row>
     <row r="20" spans="1:5" ht="22">
       <c r="B20" s="52" t="s">
-        <v>743</v>
-      </c>
-      <c r="C20" s="62" t="s">
+        <v>742</v>
+      </c>
+      <c r="C20" s="85" t="s">
         <v>712</v>
       </c>
       <c r="D20" s="52">
@@ -9356,9 +9323,9 @@
     </row>
     <row r="21" spans="1:5" ht="22">
       <c r="B21" s="52" t="s">
-        <v>740</v>
-      </c>
-      <c r="C21" s="62" t="s">
+        <v>739</v>
+      </c>
+      <c r="C21" s="85" t="s">
         <v>714</v>
       </c>
       <c r="D21" s="52">
@@ -9370,9 +9337,9 @@
     </row>
     <row r="22" spans="1:5" ht="22">
       <c r="B22" s="52" t="s">
-        <v>744</v>
-      </c>
-      <c r="C22" s="62" t="s">
+        <v>743</v>
+      </c>
+      <c r="C22" s="85" t="s">
         <v>716</v>
       </c>
       <c r="D22" s="52">
@@ -9384,23 +9351,23 @@
     </row>
     <row r="23" spans="1:5" ht="22">
       <c r="B23" s="52" t="s">
-        <v>745</v>
-      </c>
-      <c r="C23" s="62" t="s">
+        <v>744</v>
+      </c>
+      <c r="C23" s="61" t="s">
         <v>718</v>
       </c>
       <c r="D23" s="52">
         <v>2</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="22">
       <c r="B24" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="C24" s="62" t="s">
+        <v>746</v>
+      </c>
+      <c r="C24" s="61" t="s">
         <v>719</v>
       </c>
       <c r="D24" s="52">
@@ -9412,9 +9379,9 @@
     </row>
     <row r="25" spans="1:5" ht="22">
       <c r="B25" s="52" t="s">
-        <v>748</v>
-      </c>
-      <c r="C25" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="C25" s="85" t="s">
         <v>721</v>
       </c>
       <c r="D25" s="52">
@@ -9457,50 +9424,50 @@
     </row>
     <row r="30" spans="1:5" ht="22">
       <c r="B30" s="52" t="s">
+        <v>979</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>724</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>725</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="22">
       <c r="B31" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="C31" s="52" t="s">
         <v>749</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>750</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="22">
       <c r="B32" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>726</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>727</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" ht="22">
       <c r="B33" s="52" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" ht="22">
       <c r="B34" s="52" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -9719,1028 +9686,1028 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="63" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="63" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="63" customWidth="1"/>
-    <col min="6" max="7" width="31.83203125" style="63"/>
-    <col min="8" max="8" width="31.83203125" style="66"/>
-    <col min="9" max="16384" width="31.83203125" style="63"/>
+    <col min="1" max="1" width="23.83203125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="62" customWidth="1"/>
+    <col min="6" max="7" width="31.83203125" style="62"/>
+    <col min="8" max="8" width="31.83203125" style="65"/>
+    <col min="9" max="16384" width="31.83203125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>755</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>756</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="71" t="s">
+        <v>871</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="63">
+        <v>3001</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>757</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="C2" s="63">
+        <v>20</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E2" s="63">
+        <v>1</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="72" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="63">
+        <v>3002</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>759</v>
+      </c>
+      <c r="C3" s="63">
+        <v>21</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E3" s="63">
+        <v>2</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="72" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="63">
+        <v>3003</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="72" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="63">
+        <v>3004</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63">
+        <v>22</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E5" s="63">
+        <v>3</v>
+      </c>
+      <c r="F5" s="71" t="s">
         <v>872</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G5" s="64"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="63">
+        <v>3005</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>762</v>
+      </c>
+      <c r="C6" s="63">
+        <v>19</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E6" s="63">
+        <v>1</v>
+      </c>
+      <c r="G6" s="69"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="63">
+        <v>3006</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" s="63">
+        <v>24</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E7" s="63">
+        <v>2</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="63">
+        <v>3007</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>764</v>
+      </c>
+      <c r="C8" s="63">
+        <v>20</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E8" s="63">
+        <v>3</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="66" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="63">
+        <v>3008</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>765</v>
+      </c>
+      <c r="C9" s="63">
+        <v>23</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="66" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="63">
+        <v>3009</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" s="63">
+        <v>20</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E10" s="63">
+        <v>2</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="66" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="63">
+        <v>3010</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>767</v>
+      </c>
+      <c r="C11" s="63">
+        <v>22</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E11" s="63">
+        <v>1</v>
+      </c>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="63">
+        <v>3011</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>768</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E12" s="63">
+        <v>3</v>
+      </c>
+      <c r="G12" s="69"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="63">
+        <v>3012</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>769</v>
+      </c>
+      <c r="C13" s="63">
+        <v>25</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E13" s="63">
+        <v>1</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="63">
+        <v>3013</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14" s="63">
+        <v>20</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E14" s="63">
+        <v>2</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="66" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="63">
+        <v>3014</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>771</v>
+      </c>
+      <c r="C15" s="63">
+        <v>28</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E15" s="63">
+        <v>3</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="63">
+        <v>3015</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" s="63">
+        <v>21</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E16" s="63">
+        <v>1</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="66" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="63">
+        <v>3016</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>773</v>
+      </c>
+      <c r="C17" s="63">
+        <v>30</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E17" s="63">
+        <v>2</v>
+      </c>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="63">
+        <v>3017</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" s="63">
+        <v>22</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E18" s="63">
+        <v>1</v>
+      </c>
+      <c r="G18" s="69"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="63">
+        <v>3018</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>775</v>
+      </c>
+      <c r="C19" s="63">
+        <v>23</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>776</v>
+      </c>
+      <c r="E19" s="63">
+        <v>2</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="63">
+        <v>3019</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>777</v>
+      </c>
+      <c r="C20" s="63">
+        <v>20</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="66" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="63">
+        <v>3020</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>778</v>
+      </c>
+      <c r="C21" s="63">
+        <v>19</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E21" s="63">
+        <v>3</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="63">
+        <v>3021</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E22" s="63">
+        <v>1</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="66" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="63">
+        <v>3022</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>780</v>
+      </c>
+      <c r="C23" s="63">
+        <v>20</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E23" s="63">
+        <v>2</v>
+      </c>
+      <c r="G23" s="64"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="63">
+        <v>3023</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" s="63">
+        <v>21</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E24" s="63">
+        <v>3</v>
+      </c>
+      <c r="G24" s="69"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="63">
+        <v>3024</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>782</v>
+      </c>
+      <c r="C25" s="63">
+        <v>22</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E25" s="63">
+        <v>1</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="63">
+        <v>3025</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="63">
+        <v>20</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E26" s="63">
+        <v>2</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="66" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="63">
+        <v>3026</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" s="63">
+        <v>23</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E27" s="63">
+        <v>3</v>
+      </c>
+      <c r="G27" s="64"/>
+      <c r="H27" s="66" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="63">
+        <v>3027</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="C28" s="63">
+        <v>25</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E28" s="63">
+        <v>1</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="66" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="63">
+        <v>3028</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>786</v>
+      </c>
+      <c r="C29" s="63">
+        <v>26</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E29" s="63"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="63">
+        <v>3029</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>787</v>
+      </c>
+      <c r="C30" s="63">
+        <v>24</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E30" s="63">
+        <v>2</v>
+      </c>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="63">
+        <v>3030</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>788</v>
+      </c>
+      <c r="C31" s="63">
+        <v>18</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E31" s="63">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="63">
+        <v>3031</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>789</v>
+      </c>
+      <c r="C32" s="63">
+        <v>27</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E32" s="63">
+        <v>3</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="66" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="63">
+        <v>3032</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>790</v>
+      </c>
+      <c r="C33" s="63">
+        <v>19</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E33" s="63">
+        <v>2</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="66" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="63">
+        <v>3033</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>791</v>
+      </c>
+      <c r="C34" s="63">
+        <v>28</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E34" s="63">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="66" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="63">
+        <v>3034</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>792</v>
+      </c>
+      <c r="C35" s="63">
+        <v>21</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E35" s="63">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="66" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="64">
-        <v>3001</v>
-      </c>
-      <c r="B2" s="64" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="63">
+        <v>3035</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>793</v>
+      </c>
+      <c r="C36" s="63">
+        <v>22</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E36" s="63"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="63">
+        <v>3036</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>794</v>
+      </c>
+      <c r="C37" s="63">
+        <v>20</v>
+      </c>
+      <c r="D37" s="63" t="s">
         <v>758</v>
       </c>
-      <c r="C2" s="64">
+      <c r="E37" s="63">
+        <v>2</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="63">
+        <v>3037</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>795</v>
+      </c>
+      <c r="C38" s="63">
+        <v>23</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E38" s="63">
+        <v>3</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="63">
+        <v>3038</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>796</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E39" s="63">
+        <v>1</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="63">
+        <v>3039</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>797</v>
+      </c>
+      <c r="C40" s="63">
+        <v>21</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E40" s="63">
+        <v>2</v>
+      </c>
+      <c r="H40" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="63">
+        <v>3040</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>798</v>
+      </c>
+      <c r="C41" s="63">
         <v>20</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E2" s="64">
+      <c r="D41" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E41" s="63">
         <v>1</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="73" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="64">
-        <v>3002</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="H41" s="66" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="63">
+        <v>3041</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>799</v>
+      </c>
+      <c r="C42" s="63">
+        <v>29</v>
+      </c>
+      <c r="D42" s="63" t="s">
         <v>760</v>
       </c>
-      <c r="C3" s="64">
+      <c r="E42" s="63">
+        <v>3</v>
+      </c>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="63">
+        <v>3042</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>800</v>
+      </c>
+      <c r="C43" s="63">
+        <v>24</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E43" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="63">
+        <v>3043</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>801</v>
+      </c>
+      <c r="C44" s="63">
+        <v>26</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E44" s="63">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="63">
+        <v>3044</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>802</v>
+      </c>
+      <c r="C45" s="63">
+        <v>22</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E45" s="63">
+        <v>3</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="63">
+        <v>3045</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>803</v>
+      </c>
+      <c r="C46" s="63">
+        <v>20</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E46" s="63">
+        <v>1</v>
+      </c>
+      <c r="H46" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="63">
+        <v>3046</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>804</v>
+      </c>
+      <c r="C47" s="63">
+        <v>19</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E47" s="63">
+        <v>2</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="63">
+        <v>3047</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>805</v>
+      </c>
+      <c r="C48" s="63">
+        <v>27</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="66" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="63">
+        <v>3048</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>806</v>
+      </c>
+      <c r="C49" s="63">
+        <v>28</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E49" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="63">
+        <v>3049</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>807</v>
+      </c>
+      <c r="C50" s="63">
+        <v>23</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="E50" s="63">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="63">
+        <v>3050</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>808</v>
+      </c>
+      <c r="C51" s="63">
         <v>21</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E3" s="64">
+      <c r="D51" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="E51" s="63">
         <v>2</v>
       </c>
-      <c r="F3" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="73" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="64">
-        <v>3003</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>762</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="73" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="64">
-        <v>3004</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64">
-        <v>22</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E5" s="64">
-        <v>3</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>873</v>
-      </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="74"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="64">
-        <v>3005</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="C6" s="64">
-        <v>19</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E6" s="64">
-        <v>1</v>
-      </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="74"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="64">
-        <v>3006</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>764</v>
-      </c>
-      <c r="C7" s="64">
-        <v>24</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E7" s="64">
-        <v>2</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="64">
-        <v>3007</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>765</v>
-      </c>
-      <c r="C8" s="64">
-        <v>20</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E8" s="64">
-        <v>3</v>
-      </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="67" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="64">
-        <v>3008</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>766</v>
-      </c>
-      <c r="C9" s="64">
-        <v>23</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="67" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="64">
-        <v>3009</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>767</v>
-      </c>
-      <c r="C10" s="64">
-        <v>20</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E10" s="64">
-        <v>2</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="67" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="64">
-        <v>3010</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>768</v>
-      </c>
-      <c r="C11" s="64">
-        <v>22</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E11" s="64">
-        <v>1</v>
-      </c>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="64">
-        <v>3011</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>769</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E12" s="64">
-        <v>3</v>
-      </c>
-      <c r="G12" s="70"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="64">
-        <v>3012</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>770</v>
-      </c>
-      <c r="C13" s="64">
-        <v>25</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E13" s="64">
-        <v>1</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="64">
-        <v>3013</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>771</v>
-      </c>
-      <c r="C14" s="64">
-        <v>20</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E14" s="64">
-        <v>2</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="67" t="s">
+      <c r="G51" s="22" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="H52" s="66" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="H53" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="H54" s="66" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="64">
-        <v>3014</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>772</v>
-      </c>
-      <c r="C15" s="64">
-        <v>28</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E15" s="64">
-        <v>3</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="64">
-        <v>3015</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>773</v>
-      </c>
-      <c r="C16" s="64">
-        <v>21</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E16" s="64">
-        <v>1</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="67" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="64">
-        <v>3016</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>774</v>
-      </c>
-      <c r="C17" s="64">
-        <v>30</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E17" s="64">
-        <v>2</v>
-      </c>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="64">
-        <v>3017</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>775</v>
-      </c>
-      <c r="C18" s="64">
-        <v>22</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E18" s="64">
-        <v>1</v>
-      </c>
-      <c r="G18" s="70"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="64">
-        <v>3018</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>776</v>
-      </c>
-      <c r="C19" s="64">
-        <v>23</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>777</v>
-      </c>
-      <c r="E19" s="64">
-        <v>2</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="64">
-        <v>3019</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>778</v>
-      </c>
-      <c r="C20" s="64">
-        <v>20</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E20" s="64"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="67" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="64">
-        <v>3020</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>779</v>
-      </c>
-      <c r="C21" s="64">
-        <v>19</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E21" s="64">
-        <v>3</v>
-      </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="64">
-        <v>3021</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>780</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E22" s="64">
-        <v>1</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="67" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="64">
-        <v>3022</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>781</v>
-      </c>
-      <c r="C23" s="64">
-        <v>20</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E23" s="64">
-        <v>2</v>
-      </c>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="64">
-        <v>3023</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>782</v>
-      </c>
-      <c r="C24" s="64">
-        <v>21</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E24" s="64">
-        <v>3</v>
-      </c>
-      <c r="G24" s="70"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="64">
-        <v>3024</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>783</v>
-      </c>
-      <c r="C25" s="64">
-        <v>22</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E25" s="64">
-        <v>1</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="64">
-        <v>3025</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>784</v>
-      </c>
-      <c r="C26" s="64">
-        <v>20</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E26" s="64">
-        <v>2</v>
-      </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="67" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="64">
-        <v>3026</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>785</v>
-      </c>
-      <c r="C27" s="64">
-        <v>23</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E27" s="64">
-        <v>3</v>
-      </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="67" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="64">
-        <v>3027</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>786</v>
-      </c>
-      <c r="C28" s="64">
-        <v>25</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E28" s="64">
-        <v>1</v>
-      </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="67" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="64">
-        <v>3028</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>787</v>
-      </c>
-      <c r="C29" s="64">
-        <v>26</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E29" s="64"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="64">
-        <v>3029</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>788</v>
-      </c>
-      <c r="C30" s="64">
-        <v>24</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E30" s="64">
-        <v>2</v>
-      </c>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="64">
-        <v>3030</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>789</v>
-      </c>
-      <c r="C31" s="64">
-        <v>18</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E31" s="64">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="64">
-        <v>3031</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>790</v>
-      </c>
-      <c r="C32" s="64">
-        <v>27</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E32" s="64">
-        <v>3</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="67" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="64">
-        <v>3032</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>791</v>
-      </c>
-      <c r="C33" s="64">
-        <v>19</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E33" s="64">
-        <v>2</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="67" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="64">
-        <v>3033</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>792</v>
-      </c>
-      <c r="C34" s="64">
-        <v>28</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E34" s="64">
-        <v>1</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="67" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="64">
-        <v>3034</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>793</v>
-      </c>
-      <c r="C35" s="64">
-        <v>21</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E35" s="64">
-        <v>3</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="67" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="64">
-        <v>3035</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>794</v>
-      </c>
-      <c r="C36" s="64">
-        <v>22</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E36" s="64"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="64">
-        <v>3036</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>795</v>
-      </c>
-      <c r="C37" s="64">
-        <v>20</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E37" s="64">
-        <v>2</v>
-      </c>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="64">
-        <v>3037</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>796</v>
-      </c>
-      <c r="C38" s="64">
-        <v>23</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E38" s="64">
-        <v>3</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="64">
-        <v>3038</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E39" s="64">
-        <v>1</v>
-      </c>
-      <c r="H39" s="67" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="64">
-        <v>3039</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>798</v>
-      </c>
-      <c r="C40" s="64">
-        <v>21</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E40" s="64">
-        <v>2</v>
-      </c>
-      <c r="H40" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="64">
-        <v>3040</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="C41" s="64">
-        <v>20</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E41" s="64">
-        <v>1</v>
-      </c>
-      <c r="H41" s="67" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="64">
-        <v>3041</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>800</v>
-      </c>
-      <c r="C42" s="64">
-        <v>29</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E42" s="64">
-        <v>3</v>
-      </c>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="64">
-        <v>3042</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>801</v>
-      </c>
-      <c r="C43" s="64">
-        <v>24</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E43" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="64">
-        <v>3043</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>802</v>
-      </c>
-      <c r="C44" s="64">
-        <v>26</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E44" s="64">
-        <v>1</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="64">
-        <v>3044</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>803</v>
-      </c>
-      <c r="C45" s="64">
-        <v>22</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E45" s="64">
-        <v>3</v>
-      </c>
-      <c r="H45" s="67" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="64">
-        <v>3045</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>804</v>
-      </c>
-      <c r="C46" s="64">
-        <v>20</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E46" s="64">
-        <v>1</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="64">
-        <v>3046</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>805</v>
-      </c>
-      <c r="C47" s="64">
-        <v>19</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E47" s="64">
-        <v>2</v>
-      </c>
-      <c r="H47" s="67" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="64">
-        <v>3047</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>806</v>
-      </c>
-      <c r="C48" s="64">
-        <v>27</v>
-      </c>
-      <c r="D48" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E48" s="64"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="67" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="64">
-        <v>3048</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>807</v>
-      </c>
-      <c r="C49" s="64">
-        <v>28</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E49" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="64">
-        <v>3049</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>808</v>
-      </c>
-      <c r="C50" s="64">
-        <v>23</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E50" s="64">
-        <v>1</v>
-      </c>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="64">
-        <v>3050</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>809</v>
-      </c>
-      <c r="C51" s="64">
-        <v>21</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E51" s="64">
-        <v>2</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="H52" s="67" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="H53" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="H54" s="67" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -10748,28 +10715,28 @@
     </row>
     <row r="56" spans="1:8">
       <c r="G56" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="G57" s="24"/>
-      <c r="H57" s="67" t="s">
-        <v>824</v>
+      <c r="H57" s="66" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="H58" s="67" t="s">
+      <c r="H58" s="66" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="H59" s="67" t="s">
-        <v>835</v>
+      <c r="H59" s="66" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="H60" s="67" t="s">
-        <v>811</v>
+      <c r="H60" s="66" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -10777,33 +10744,33 @@
     </row>
     <row r="62" spans="1:8">
       <c r="G62" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="G63" s="21"/>
-      <c r="H63" s="67" t="s">
+      <c r="H63" s="66" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="H64" s="66" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="H65" s="66" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="H64" s="67" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8">
-      <c r="H65" s="67" t="s">
+    <row r="66" spans="7:8">
+      <c r="H66" s="66" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="7:8">
-      <c r="H66" s="67" t="s">
+    <row r="67" spans="7:8">
+      <c r="H67" s="66" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="67" spans="7:8">
-      <c r="H67" s="67" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="69" spans="7:8">
@@ -10811,33 +10778,33 @@
     </row>
     <row r="70" spans="7:8">
       <c r="G70" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="7:8">
       <c r="G71" s="21"/>
-      <c r="H71" s="67" t="s">
+      <c r="H71" s="66" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="H72" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="H73" s="66" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="72" spans="7:8">
-      <c r="H72" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8">
-      <c r="H73" s="67" t="s">
+    <row r="74" spans="7:8">
+      <c r="H74" s="66" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="74" spans="7:8">
-      <c r="H74" s="67" t="s">
+    <row r="75" spans="7:8">
+      <c r="H75" s="66" t="s">
         <v>844</v>
-      </c>
-    </row>
-    <row r="75" spans="7:8">
-      <c r="H75" s="67" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="77" spans="7:8">
@@ -10845,28 +10812,28 @@
     </row>
     <row r="78" spans="7:8">
       <c r="G78" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="79" spans="7:8">
       <c r="G79" s="21"/>
-      <c r="H79" s="67" t="s">
+      <c r="H79" s="66" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
+      <c r="H80" s="66" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="H81" s="66" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="80" spans="7:8">
-      <c r="H80" s="67" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8">
-      <c r="H81" s="67" t="s">
-        <v>848</v>
-      </c>
-    </row>
     <row r="82" spans="7:8">
-      <c r="H82" s="67" t="s">
-        <v>814</v>
+      <c r="H82" s="66" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="84" spans="7:8">
@@ -10874,33 +10841,33 @@
     </row>
     <row r="85" spans="7:8">
       <c r="G85" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="86" spans="7:8">
       <c r="G86" s="21"/>
-      <c r="H86" s="67" t="s">
+      <c r="H86" s="66" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8">
+      <c r="H87" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
+      <c r="H88" s="66" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="H89" s="66" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="7:8">
-      <c r="H87" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="88" spans="7:8">
-      <c r="H88" s="67" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="89" spans="7:8">
-      <c r="H89" s="67" t="s">
+    <row r="90" spans="7:8">
+      <c r="H90" s="66" t="s">
         <v>851</v>
-      </c>
-    </row>
-    <row r="90" spans="7:8">
-      <c r="H90" s="67" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="92" spans="7:8">
@@ -10908,33 +10875,33 @@
     </row>
     <row r="93" spans="7:8">
       <c r="G93" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="94" spans="7:8">
       <c r="G94" s="21"/>
-      <c r="H94" s="67" t="s">
+      <c r="H94" s="66" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="H95" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="H96" s="66" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="H97" s="66" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="H98" s="66" t="s">
         <v>854</v>
-      </c>
-    </row>
-    <row r="95" spans="7:8">
-      <c r="H95" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="96" spans="7:8">
-      <c r="H96" s="67" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="97" spans="7:8">
-      <c r="H97" s="67" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="98" spans="7:8">
-      <c r="H98" s="67" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="100" spans="7:8">
@@ -10942,38 +10909,38 @@
     </row>
     <row r="101" spans="7:8">
       <c r="G101" s="20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="102" spans="7:8">
       <c r="G102" s="21"/>
-      <c r="H102" s="67" t="s">
-        <v>847</v>
+      <c r="H102" s="66" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="103" spans="7:8">
-      <c r="H103" s="67" t="s">
+      <c r="H103" s="66" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="104" spans="7:8">
-      <c r="H104" s="67" t="s">
-        <v>838</v>
+      <c r="H104" s="66" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="105" spans="7:8">
-      <c r="H105" s="67" t="s">
+      <c r="H105" s="66" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8">
+      <c r="H106" s="66" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="106" spans="7:8">
-      <c r="H106" s="67" t="s">
+    <row r="107" spans="7:8">
+      <c r="H107" s="66" t="s">
         <v>858</v>
-      </c>
-    </row>
-    <row r="107" spans="7:8">
-      <c r="H107" s="67" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="109" spans="7:8">
@@ -10981,28 +10948,28 @@
     </row>
     <row r="110" spans="7:8">
       <c r="G110" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="111" spans="7:8">
       <c r="G111" s="21"/>
-      <c r="H111" s="67" t="s">
+      <c r="H111" s="66" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8">
+      <c r="H112" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8">
+      <c r="H113" s="66" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8">
+      <c r="H114" s="66" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="112" spans="7:8">
-      <c r="H112" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="113" spans="7:8">
-      <c r="H113" s="67" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8">
-      <c r="H114" s="67" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="116" spans="7:8">
@@ -11010,28 +10977,28 @@
     </row>
     <row r="117" spans="7:8">
       <c r="G117" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="118" spans="7:8">
       <c r="G118" s="21"/>
-      <c r="H118" s="67" t="s">
-        <v>863</v>
+      <c r="H118" s="66" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="119" spans="7:8">
-      <c r="H119" s="67" t="s">
+      <c r="H119" s="66" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="120" spans="7:8">
-      <c r="H120" s="67" t="s">
-        <v>843</v>
+      <c r="H120" s="66" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="121" spans="7:8">
-      <c r="H121" s="67" t="s">
-        <v>828</v>
+      <c r="H121" s="66" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="123" spans="7:8">
@@ -11039,28 +11006,28 @@
     </row>
     <row r="124" spans="7:8">
       <c r="G124" s="20" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="125" spans="7:8">
       <c r="G125" s="21"/>
-      <c r="H125" s="67" t="s">
-        <v>824</v>
+      <c r="H125" s="66" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="126" spans="7:8">
-      <c r="H126" s="67" t="s">
+      <c r="H126" s="66" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="127" spans="7:8">
-      <c r="H127" s="67" t="s">
-        <v>865</v>
+      <c r="H127" s="66" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="128" spans="7:8">
-      <c r="H128" s="67" t="s">
-        <v>811</v>
+      <c r="H128" s="66" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="130" spans="7:8">
@@ -11068,33 +11035,33 @@
     </row>
     <row r="131" spans="7:8">
       <c r="G131" s="20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="132" spans="7:8">
       <c r="G132" s="21"/>
-      <c r="H132" s="67" t="s">
+      <c r="H132" s="66" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8">
+      <c r="H133" s="66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8">
+      <c r="H134" s="66" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8">
+      <c r="H135" s="66" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8">
+      <c r="H136" s="66" t="s">
         <v>867</v>
-      </c>
-    </row>
-    <row r="133" spans="7:8">
-      <c r="H133" s="67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="134" spans="7:8">
-      <c r="H134" s="67" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="135" spans="7:8">
-      <c r="H135" s="67" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="136" spans="7:8">
-      <c r="H136" s="67" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="149" spans="7:7">
@@ -11134,817 +11101,4 @@
   <autoFilter ref="A1:E51" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05B7C55-8519-1744-A6F4-6D9438227DA6}">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24">
-      <c r="A1" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>754</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>755</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>756</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24">
-      <c r="A2" s="64">
-        <v>3001</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>758</v>
-      </c>
-      <c r="C2" s="64">
-        <v>20</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E2" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24">
-      <c r="A3" s="64">
-        <v>3005</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="C3" s="64">
-        <v>19</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E3" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24">
-      <c r="A4" s="64">
-        <v>3010</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>768</v>
-      </c>
-      <c r="C4" s="64">
-        <v>22</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E4" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24">
-      <c r="A5" s="64">
-        <v>3012</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>770</v>
-      </c>
-      <c r="C5" s="64">
-        <v>25</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E5" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24">
-      <c r="A6" s="64">
-        <v>3015</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>773</v>
-      </c>
-      <c r="C6" s="64">
-        <v>21</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E6" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24">
-      <c r="A7" s="64">
-        <v>3017</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>775</v>
-      </c>
-      <c r="C7" s="64">
-        <v>22</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E7" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24">
-      <c r="A8" s="64">
-        <v>3021</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>780</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E8" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24">
-      <c r="A9" s="64">
-        <v>3024</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>783</v>
-      </c>
-      <c r="C9" s="64">
-        <v>22</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E9" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24">
-      <c r="A10" s="64">
-        <v>3027</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>786</v>
-      </c>
-      <c r="C10" s="64">
-        <v>25</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E10" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24">
-      <c r="A11" s="64">
-        <v>3030</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>789</v>
-      </c>
-      <c r="C11" s="64">
-        <v>18</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E11" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24">
-      <c r="A12" s="64">
-        <v>3033</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>792</v>
-      </c>
-      <c r="C12" s="64">
-        <v>28</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E12" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24">
-      <c r="A13" s="64">
-        <v>3038</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E13" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24">
-      <c r="A14" s="64">
-        <v>3040</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="C14" s="64">
-        <v>20</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E14" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24">
-      <c r="A15" s="64">
-        <v>3043</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>802</v>
-      </c>
-      <c r="C15" s="64">
-        <v>26</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E15" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="24">
-      <c r="A16" s="64">
-        <v>3045</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>804</v>
-      </c>
-      <c r="C16" s="64">
-        <v>20</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E16" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24">
-      <c r="A17" s="64">
-        <v>3049</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>808</v>
-      </c>
-      <c r="C17" s="64">
-        <v>23</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E17" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24">
-      <c r="A19" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>754</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>755</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>756</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24">
-      <c r="A20" s="64">
-        <v>3002</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>760</v>
-      </c>
-      <c r="C20" s="64">
-        <v>21</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E20" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24">
-      <c r="A21" s="64">
-        <v>3006</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>764</v>
-      </c>
-      <c r="C21" s="64">
-        <v>24</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E21" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24">
-      <c r="A22" s="64">
-        <v>3009</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>767</v>
-      </c>
-      <c r="C22" s="64">
-        <v>20</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E22" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24">
-      <c r="A23" s="64">
-        <v>3013</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>771</v>
-      </c>
-      <c r="C23" s="64">
-        <v>20</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E23" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="24">
-      <c r="A24" s="64">
-        <v>3016</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>774</v>
-      </c>
-      <c r="C24" s="64">
-        <v>30</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E24" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24">
-      <c r="A25" s="64">
-        <v>3018</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>776</v>
-      </c>
-      <c r="C25" s="64">
-        <v>23</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>777</v>
-      </c>
-      <c r="E25" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="24">
-      <c r="A26" s="64">
-        <v>3022</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>781</v>
-      </c>
-      <c r="C26" s="64">
-        <v>20</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E26" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24">
-      <c r="A27" s="64">
-        <v>3025</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>784</v>
-      </c>
-      <c r="C27" s="64">
-        <v>20</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E27" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="24">
-      <c r="A28" s="64">
-        <v>3029</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>788</v>
-      </c>
-      <c r="C28" s="64">
-        <v>24</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E28" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="24">
-      <c r="A29" s="64">
-        <v>3032</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>791</v>
-      </c>
-      <c r="C29" s="64">
-        <v>19</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E29" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24">
-      <c r="A30" s="64">
-        <v>3036</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>795</v>
-      </c>
-      <c r="C30" s="64">
-        <v>20</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E30" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="24">
-      <c r="A31" s="64">
-        <v>3039</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>798</v>
-      </c>
-      <c r="C31" s="64">
-        <v>21</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E31" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24">
-      <c r="A32" s="64">
-        <v>3042</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>801</v>
-      </c>
-      <c r="C32" s="64">
-        <v>24</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E32" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24">
-      <c r="A33" s="64">
-        <v>3046</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>805</v>
-      </c>
-      <c r="C33" s="64">
-        <v>19</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E33" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24">
-      <c r="A34" s="64">
-        <v>3050</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>809</v>
-      </c>
-      <c r="C34" s="64">
-        <v>21</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E34" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="24">
-      <c r="A36" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>754</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>755</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>756</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24">
-      <c r="A37" s="64">
-        <v>3004</v>
-      </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64">
-        <v>22</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E37" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="24">
-      <c r="A38" s="64">
-        <v>3007</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>765</v>
-      </c>
-      <c r="C38" s="64">
-        <v>20</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E38" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="24">
-      <c r="A39" s="64">
-        <v>3011</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>769</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E39" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="24">
-      <c r="A40" s="64">
-        <v>3014</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>772</v>
-      </c>
-      <c r="C40" s="64">
-        <v>28</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E40" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24">
-      <c r="A41" s="64">
-        <v>3020</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>779</v>
-      </c>
-      <c r="C41" s="64">
-        <v>19</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E41" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="24">
-      <c r="A42" s="64">
-        <v>3023</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>782</v>
-      </c>
-      <c r="C42" s="64">
-        <v>21</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E42" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="24">
-      <c r="A43" s="64">
-        <v>3026</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>785</v>
-      </c>
-      <c r="C43" s="64">
-        <v>23</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E43" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24">
-      <c r="A44" s="64">
-        <v>3031</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>790</v>
-      </c>
-      <c r="C44" s="64">
-        <v>27</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E44" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="24">
-      <c r="A45" s="64">
-        <v>3034</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>793</v>
-      </c>
-      <c r="C45" s="64">
-        <v>21</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E45" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="24">
-      <c r="A46" s="64">
-        <v>3037</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>796</v>
-      </c>
-      <c r="C46" s="64">
-        <v>23</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E46" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24">
-      <c r="A47" s="64">
-        <v>3041</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>800</v>
-      </c>
-      <c r="C47" s="64">
-        <v>29</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E47" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="24">
-      <c r="A48" s="64">
-        <v>3044</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>803</v>
-      </c>
-      <c r="C48" s="64">
-        <v>22</v>
-      </c>
-      <c r="D48" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E48" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="24">
-      <c r="A49" s="64">
-        <v>3048</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>807</v>
-      </c>
-      <c r="C49" s="64">
-        <v>28</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="E49" s="64">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Beginner/Slides/Lec_5_6.xlsx
+++ b/Beginner/Slides/Lec_5_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B78BCE-0DD2-7A4B-9343-E12316A9AA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C8BC3-B43B-1D42-8827-F342E8751196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="5" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -3757,6 +3757,10 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3779,10 +3783,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4861,8 +4861,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A56" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A63" sqref="A62:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5068,7 +5068,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="78" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="76"/>
+      <c r="D29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -5094,7 +5094,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="76"/>
+      <c r="D30" s="78"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -5106,7 +5106,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="76"/>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -5118,7 +5118,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="76"/>
+      <c r="D32" s="78"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -5130,7 +5130,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="76"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -5142,7 +5142,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="78"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -5154,7 +5154,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="76"/>
+      <c r="D35" s="78"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -5166,7 +5166,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="76"/>
+      <c r="D36" s="78"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -5178,7 +5178,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="76"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -5190,7 +5190,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="76"/>
+      <c r="D38" s="78"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -5202,7 +5202,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="76"/>
+      <c r="D39" s="78"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -5214,7 +5214,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="76"/>
+      <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -5226,7 +5226,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="76"/>
+      <c r="D41" s="78"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -5238,7 +5238,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="76"/>
+      <c r="D42" s="78"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -5250,7 +5250,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="76"/>
+      <c r="D43" s="78"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -5262,7 +5262,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="76"/>
+      <c r="D44" s="78"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
@@ -5632,10 +5632,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="79"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5721,8 +5721,8 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="83" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -5869,7 +5869,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="82"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="58" t="s">
         <v>483</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="83" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5895,7 +5895,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="82"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="83" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5921,7 +5921,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="82"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -5961,7 +5961,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="83" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5975,7 +5975,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="83"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="82"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -6027,7 +6027,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="80" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -6041,7 +6041,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="79"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="79"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="26" t="s">
         <v>602</v>
       </c>
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="79"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="79"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="80"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -6101,7 +6101,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="80" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -6115,7 +6115,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="79"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -6127,7 +6127,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="79"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="59" t="s">
         <v>604</v>
       </c>
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="79"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="26" t="s">
         <v>603</v>
       </c>
@@ -6154,7 +6154,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="79"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -6169,7 +6169,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="80"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="80" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="75" t="s">
@@ -6199,7 +6199,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="79"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="75" t="s">
         <v>272</v>
       </c>
@@ -6212,7 +6212,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="79"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="75" t="s">
         <v>275</v>
       </c>
@@ -6227,7 +6227,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="79"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="75" t="s">
         <v>278</v>
       </c>
@@ -6240,7 +6240,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="79"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="75" t="s">
         <v>281</v>
       </c>
@@ -6255,7 +6255,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="80"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="75" t="s">
         <v>284</v>
       </c>
@@ -6267,7 +6267,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="80" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -6281,7 +6281,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="79"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="26" t="s">
         <v>290</v>
       </c>
@@ -6293,7 +6293,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="79"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="26" t="s">
         <v>293</v>
       </c>
@@ -6305,7 +6305,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="79"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="26" t="s">
         <v>296</v>
       </c>
@@ -6317,7 +6317,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="80"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="26" t="s">
         <v>872</v>
       </c>
@@ -6329,7 +6329,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="80" t="s">
         <v>301</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -6343,7 +6343,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="79"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="26" t="s">
         <v>305</v>
       </c>
@@ -6355,7 +6355,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="79"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="26" t="s">
         <v>308</v>
       </c>
@@ -6367,7 +6367,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="80"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="26" t="s">
         <v>311</v>
       </c>
@@ -9122,7 +9122,9 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31" defaultRowHeight="16"/>
   <cols>
@@ -9161,7 +9163,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="76" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -9172,7 +9174,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="76" t="s">
         <v>278</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -9183,7 +9185,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="76" t="s">
         <v>281</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -9269,7 +9271,7 @@
       <c r="B17" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="77" t="s">
         <v>706</v>
       </c>
       <c r="D17" s="52">
@@ -9311,7 +9313,7 @@
       <c r="B20" s="52" t="s">
         <v>742</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="77" t="s">
         <v>712</v>
       </c>
       <c r="D20" s="52">
@@ -9325,7 +9327,7 @@
       <c r="B21" s="52" t="s">
         <v>739</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="77" t="s">
         <v>714</v>
       </c>
       <c r="D21" s="52">
@@ -9339,7 +9341,7 @@
       <c r="B22" s="52" t="s">
         <v>743</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="77" t="s">
         <v>716</v>
       </c>
       <c r="D22" s="52">
@@ -9381,7 +9383,7 @@
       <c r="B25" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="77" t="s">
         <v>721</v>
       </c>
       <c r="D25" s="52">

--- a/Beginner/Slides/Lec_5_6.xlsx
+++ b/Beginner/Slides/Lec_5_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C8BC3-B43B-1D42-8827-F342E8751196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1A653A-5707-9E45-80E9-20AA6FC24B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -3751,7 +3751,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3785,6 +3784,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4861,8 +4861,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A63" sqref="A62:A63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5068,7 +5068,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="77" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -5094,7 +5094,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="77"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -5106,7 +5106,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="77"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -5118,7 +5118,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="78"/>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -5130,7 +5130,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -5142,7 +5142,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="78"/>
+      <c r="D34" s="77"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -5154,7 +5154,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="77"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -5166,7 +5166,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="77"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -5178,7 +5178,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="78"/>
+      <c r="D37" s="77"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -5190,7 +5190,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="77"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -5202,7 +5202,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="77"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -5214,7 +5214,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="77"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -5226,7 +5226,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="77"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -5238,7 +5238,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="78"/>
+      <c r="D42" s="77"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -5250,7 +5250,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="77"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -5262,7 +5262,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="77"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
@@ -5330,12 +5330,12 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="85" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="85" t="s">
         <v>868</v>
       </c>
       <c r="B63" s="42"/>
@@ -5632,10 +5632,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="79"/>
+      <c r="D46" s="78"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5721,9 +5721,7 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="107" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -5855,7 +5853,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -5869,7 +5867,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="84"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="58" t="s">
         <v>483</v>
       </c>
@@ -5881,7 +5879,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="82" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5895,7 +5893,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="84"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -5907,7 +5905,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5921,7 +5919,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="84"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -5961,7 +5959,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5975,7 +5973,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="85"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5987,7 +5985,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="84"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -6027,7 +6025,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -6041,7 +6039,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="81"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -6053,7 +6051,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="81"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="26" t="s">
         <v>602</v>
       </c>
@@ -6065,7 +6063,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="81"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -6077,7 +6075,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="81"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -6089,7 +6087,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="82"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -6101,7 +6099,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="79" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -6115,7 +6113,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="81"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -6127,7 +6125,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="81"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="59" t="s">
         <v>604</v>
       </c>
@@ -6142,7 +6140,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="81"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="26" t="s">
         <v>603</v>
       </c>
@@ -6154,7 +6152,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="81"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -6169,7 +6167,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="82"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -6182,10 +6180,10 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="74" t="s">
         <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -6199,8 +6197,8 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="81"/>
-      <c r="C48" s="75" t="s">
+      <c r="B48" s="80"/>
+      <c r="C48" s="74" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -6212,8 +6210,8 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="81"/>
-      <c r="C49" s="75" t="s">
+      <c r="B49" s="80"/>
+      <c r="C49" s="74" t="s">
         <v>275</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -6227,8 +6225,8 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="81"/>
-      <c r="C50" s="75" t="s">
+      <c r="B50" s="80"/>
+      <c r="C50" s="74" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -6240,8 +6238,8 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="81"/>
-      <c r="C51" s="75" t="s">
+      <c r="B51" s="80"/>
+      <c r="C51" s="74" t="s">
         <v>281</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -6255,8 +6253,8 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="82"/>
-      <c r="C52" s="75" t="s">
+      <c r="B52" s="81"/>
+      <c r="C52" s="74" t="s">
         <v>284</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -6267,7 +6265,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="79" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -6281,7 +6279,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="81"/>
+      <c r="B54" s="80"/>
       <c r="C54" s="26" t="s">
         <v>290</v>
       </c>
@@ -6293,7 +6291,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="81"/>
+      <c r="B55" s="80"/>
       <c r="C55" s="26" t="s">
         <v>293</v>
       </c>
@@ -6305,7 +6303,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="81"/>
+      <c r="B56" s="80"/>
       <c r="C56" s="26" t="s">
         <v>296</v>
       </c>
@@ -6317,7 +6315,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="82"/>
+      <c r="B57" s="81"/>
       <c r="C57" s="26" t="s">
         <v>872</v>
       </c>
@@ -6329,7 +6327,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="79" t="s">
         <v>301</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -6343,7 +6341,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="81"/>
+      <c r="B59" s="80"/>
       <c r="C59" s="26" t="s">
         <v>305</v>
       </c>
@@ -6355,7 +6353,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="81"/>
+      <c r="B60" s="80"/>
       <c r="C60" s="26" t="s">
         <v>308</v>
       </c>
@@ -6367,7 +6365,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="82"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="26" t="s">
         <v>311</v>
       </c>
@@ -7125,7 +7123,7 @@
       <c r="AH1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AQ1" s="74" t="s">
+      <c r="AQ1" s="73" t="s">
         <v>874</v>
       </c>
     </row>
@@ -7840,7 +7838,7 @@
       <c r="AH45" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="AQ45" s="74" t="s">
+      <c r="AQ45" s="73" t="s">
         <v>895</v>
       </c>
     </row>
@@ -8416,7 +8414,7 @@
       <c r="AH89" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="AQ89" s="74" t="s">
+      <c r="AQ89" s="73" t="s">
         <v>916</v>
       </c>
     </row>
@@ -8750,7 +8748,7 @@
       <c r="AH133" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="AQ133" s="74" t="s">
+      <c r="AQ133" s="73" t="s">
         <v>937</v>
       </c>
     </row>
@@ -9006,7 +9004,7 @@
       </c>
     </row>
     <row r="177" spans="43:43" ht="19">
-      <c r="AQ177" s="74" t="s">
+      <c r="AQ177" s="73" t="s">
         <v>958</v>
       </c>
     </row>
@@ -9122,8 +9120,8 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31" defaultRowHeight="16"/>
@@ -9163,7 +9161,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -9174,7 +9172,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>278</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -9185,7 +9183,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>281</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -9271,7 +9269,7 @@
       <c r="B17" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="76" t="s">
         <v>706</v>
       </c>
       <c r="D17" s="52">
@@ -9313,7 +9311,7 @@
       <c r="B20" s="52" t="s">
         <v>742</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="76" t="s">
         <v>712</v>
       </c>
       <c r="D20" s="52">
@@ -9327,7 +9325,7 @@
       <c r="B21" s="52" t="s">
         <v>739</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="76" t="s">
         <v>714</v>
       </c>
       <c r="D21" s="52">
@@ -9341,7 +9339,7 @@
       <c r="B22" s="52" t="s">
         <v>743</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>716</v>
       </c>
       <c r="D22" s="52">
@@ -9383,7 +9381,7 @@
       <c r="B25" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="76" t="s">
         <v>721</v>
       </c>
       <c r="D25" s="52">
@@ -9714,7 +9712,7 @@
       <c r="E1" s="67" t="s">
         <v>756</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>871</v>
       </c>
       <c r="G1" s="68" t="s">
@@ -9737,11 +9735,11 @@
       <c r="E2" s="63">
         <v>1</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="70" t="s">
         <v>290</v>
       </c>
       <c r="G2" s="69"/>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="71" t="s">
         <v>873</v>
       </c>
     </row>
@@ -9761,11 +9759,11 @@
       <c r="E3" s="63">
         <v>2</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="70" t="s">
         <v>293</v>
       </c>
       <c r="G3" s="64"/>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>628</v>
       </c>
     </row>
@@ -9781,11 +9779,11 @@
         <v>760</v>
       </c>
       <c r="E4" s="63"/>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="70" t="s">
         <v>296</v>
       </c>
       <c r="G4" s="64"/>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="71" t="s">
         <v>810</v>
       </c>
     </row>
@@ -9803,11 +9801,11 @@
       <c r="E5" s="63">
         <v>3</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="70" t="s">
         <v>872</v>
       </c>
       <c r="G5" s="64"/>
-      <c r="H5" s="73"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="63">
@@ -9826,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="69"/>
-      <c r="H6" s="73"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="63">
